--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_10_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_10_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62665.14155776583</v>
+        <v>-63455.33994629468</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2449913.843919627</v>
+        <v>2449913.843919626</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736559</v>
+        <v>504792.029273656</v>
       </c>
     </row>
     <row r="9">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>8.816525072005941</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,55 +829,55 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10.00967878293136</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>10.00967878293136</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,58 +984,58 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="G6" t="n">
-        <v>8.816525072005941</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>10.00967878293136</v>
       </c>
       <c r="R7" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="S7" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>135.7293992974318</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>107.607508220824</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>29.81855126207275</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>31.28269957069985</v>
+      </c>
+      <c r="E9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D9" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>60.36402868517423</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>60.09378870120881</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.09378870120881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>307.5588571917058</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>295.5701741493875</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>286.5514781939155</v>
       </c>
       <c r="E11" t="n">
-        <v>308.2936157638212</v>
+        <v>308.293615763821</v>
       </c>
       <c r="F11" t="n">
-        <v>327.4654318517983</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>328.9154021696692</v>
+        <v>328.9154021696691</v>
       </c>
       <c r="H11" t="n">
-        <v>16.82175794935635</v>
+        <v>241.9992433909468</v>
       </c>
       <c r="I11" t="n">
-        <v>69.91244993649202</v>
+        <v>69.91244993649192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>91.79929509078219</v>
+        <v>91.79929509078208</v>
       </c>
       <c r="T11" t="n">
-        <v>137.4554747206784</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>169.7535721856487</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>251.065234431885</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>276.3653339098419</v>
+        <v>276.3653339098418</v>
       </c>
       <c r="X11" t="n">
-        <v>295.6655921425885</v>
+        <v>66.54731035599926</v>
       </c>
       <c r="Y11" t="n">
-        <v>307.0621899387873</v>
+        <v>307.0621899387872</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.44107283201899</v>
       </c>
       <c r="I12" t="n">
-        <v>58.79535734013339</v>
+        <v>58.79535734013341</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>43.13134901446313</v>
+        <v>43.13134901446315</v>
       </c>
       <c r="S12" t="n">
         <v>146.468351968438</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.17556806640299</v>
+        <v>99.17556806640286</v>
       </c>
       <c r="C13" t="n">
-        <v>85.37556291180347</v>
+        <v>85.37556291180334</v>
       </c>
       <c r="D13" t="n">
-        <v>68.99692730938186</v>
+        <v>68.99692730938173</v>
       </c>
       <c r="E13" t="n">
-        <v>67.94467716516131</v>
+        <v>67.94467716516118</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>84.46951355862183</v>
       </c>
       <c r="H13" t="n">
-        <v>63.99424220124205</v>
+        <v>73.30720582247774</v>
       </c>
       <c r="I13" t="n">
-        <v>53.69728074684132</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>55.73462041390951</v>
       </c>
       <c r="S13" t="n">
-        <v>125.250348151099</v>
+        <v>121.1176366456645</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>147.3766293726671</v>
       </c>
       <c r="U13" t="n">
-        <v>201.7622652397813</v>
+        <v>201.7622652397812</v>
       </c>
       <c r="V13" t="n">
-        <v>175.5837044660286</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>200.7505905366418</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>146.395692532445</v>
+        <v>146.3956925324448</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>137.2705602885125</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>307.5588571917059</v>
+        <v>307.5588571917057</v>
       </c>
       <c r="C14" t="n">
-        <v>295.5701741493876</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>286.5514781939156</v>
+        <v>286.5514781939154</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>308.2936157638209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.4654318517981</v>
       </c>
       <c r="G14" t="n">
-        <v>328.9154021696692</v>
+        <v>328.9154021696689</v>
       </c>
       <c r="H14" t="n">
-        <v>183.7191026475006</v>
+        <v>241.9992433909467</v>
       </c>
       <c r="I14" t="n">
-        <v>69.91244993649202</v>
+        <v>69.9124499364918</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.79929509078219</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>137.4554747206784</v>
+        <v>137.4554747206781</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.3924708198920257</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>276.3653339098419</v>
+        <v>276.3653339098417</v>
       </c>
       <c r="X14" t="n">
-        <v>295.6655921425885</v>
+        <v>295.6655921425883</v>
       </c>
       <c r="Y14" t="n">
-        <v>307.0621899387873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.44107283201899</v>
       </c>
       <c r="I15" t="n">
-        <v>58.79535734013339</v>
+        <v>58.79535734013341</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>43.13134901446313</v>
+        <v>43.13134901446315</v>
       </c>
       <c r="S15" t="n">
         <v>146.468351968438</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.17556806640299</v>
+        <v>99.17556806640273</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>84.46951355862195</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>73.30720582247785</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>53.69728074684132</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>55.73462041390938</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5335412288524</v>
+        <v>124.8772284104424</v>
       </c>
       <c r="T16" t="n">
-        <v>147.3766293726673</v>
+        <v>147.376629372667</v>
       </c>
       <c r="U16" t="n">
-        <v>201.7622652397813</v>
+        <v>201.7622652397811</v>
       </c>
       <c r="V16" t="n">
-        <v>175.5837044660286</v>
+        <v>175.5837044660283</v>
       </c>
       <c r="W16" t="n">
-        <v>200.7505905366418</v>
+        <v>200.7505905366416</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>146.3956925324447</v>
       </c>
       <c r="Y16" t="n">
-        <v>137.2705602885126</v>
+        <v>137.2705602885124</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>232.919889688841</v>
+        <v>232.9198896888411</v>
       </c>
       <c r="C17" t="n">
-        <v>220.9312066465227</v>
+        <v>220.9312066465228</v>
       </c>
       <c r="D17" t="n">
-        <v>211.9125106910507</v>
+        <v>211.9125106910508</v>
       </c>
       <c r="E17" t="n">
         <v>233.6546482609563</v>
       </c>
       <c r="F17" t="n">
-        <v>252.8264643489334</v>
+        <v>252.8264643489335</v>
       </c>
       <c r="G17" t="n">
         <v>254.2764346668043</v>
       </c>
       <c r="H17" t="n">
-        <v>167.360275888082</v>
+        <v>167.3602758880821</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.16032758791729</v>
+        <v>17.16032758791738</v>
       </c>
       <c r="T17" t="n">
-        <v>62.81650721781344</v>
+        <v>62.81650721781349</v>
       </c>
       <c r="U17" t="n">
-        <v>95.11460468278383</v>
+        <v>95.11460468278389</v>
       </c>
       <c r="V17" t="n">
-        <v>176.4262669290201</v>
+        <v>176.4262669290202</v>
       </c>
       <c r="W17" t="n">
-        <v>201.726366406977</v>
+        <v>201.7263664069771</v>
       </c>
       <c r="X17" t="n">
         <v>221.0266246397237</v>
       </c>
       <c r="Y17" t="n">
-        <v>232.4232224359224</v>
+        <v>232.4232224359225</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>96.44107283201899</v>
       </c>
       <c r="I18" t="n">
-        <v>58.79535734013339</v>
+        <v>58.79535734013341</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>43.13134901446313</v>
+        <v>43.13134901446315</v>
       </c>
       <c r="S18" t="n">
         <v>146.468351968438</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.53660056353809</v>
+        <v>24.53660056353814</v>
       </c>
       <c r="C19" t="n">
-        <v>10.73659540893857</v>
+        <v>10.73659540893863</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>9.830546055757056</v>
+        <v>9.830546055757113</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>47.545288788913</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>50.61138064823415</v>
+        <v>50.61138064823421</v>
       </c>
       <c r="T19" t="n">
-        <v>72.73766186980234</v>
+        <v>72.73766186980239</v>
       </c>
       <c r="U19" t="n">
-        <v>127.1232977369164</v>
+        <v>127.1232977369165</v>
       </c>
       <c r="V19" t="n">
-        <v>148.4900257520776</v>
+        <v>100.9447369631637</v>
       </c>
       <c r="W19" t="n">
-        <v>126.1116230337769</v>
+        <v>126.111623033777</v>
       </c>
       <c r="X19" t="n">
-        <v>71.75672502958005</v>
+        <v>71.75672502958011</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.63159278564774</v>
+        <v>62.6315927856478</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>232.919889688841</v>
+        <v>232.9198896888411</v>
       </c>
       <c r="C20" t="n">
         <v>220.9312066465228</v>
       </c>
       <c r="D20" t="n">
-        <v>211.9125106910507</v>
+        <v>211.9125106910508</v>
       </c>
       <c r="E20" t="n">
-        <v>233.6546482609563</v>
+        <v>233.6546482609529</v>
       </c>
       <c r="F20" t="n">
-        <v>252.8264643489334</v>
+        <v>252.8264643489335</v>
       </c>
       <c r="G20" t="n">
         <v>254.2764346668043</v>
       </c>
       <c r="H20" t="n">
-        <v>167.360275888082</v>
+        <v>167.3602758880821</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.16032758791724</v>
+        <v>17.16032758791738</v>
       </c>
       <c r="T20" t="n">
-        <v>62.81650721781344</v>
+        <v>62.81650721781349</v>
       </c>
       <c r="U20" t="n">
-        <v>95.11460468278383</v>
+        <v>95.11460468278389</v>
       </c>
       <c r="V20" t="n">
-        <v>176.4262669290201</v>
+        <v>176.4262669290202</v>
       </c>
       <c r="W20" t="n">
-        <v>201.726366406977</v>
+        <v>201.7263664069771</v>
       </c>
       <c r="X20" t="n">
         <v>221.0266246397237</v>
       </c>
       <c r="Y20" t="n">
-        <v>232.4232224359224</v>
+        <v>232.4232224359225</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>127.1826279748325</v>
       </c>
       <c r="H21" t="n">
-        <v>96.44107283201897</v>
+        <v>96.44107283201899</v>
       </c>
       <c r="I21" t="n">
-        <v>58.79535734013336</v>
+        <v>58.79535734013341</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>43.13134901446307</v>
+        <v>43.13134901446315</v>
       </c>
       <c r="S21" t="n">
         <v>146.468351968438</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.53660056353809</v>
+        <v>24.53660056353814</v>
       </c>
       <c r="C22" t="n">
-        <v>10.73659540893857</v>
+        <v>10.73659540893863</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>9.830546055757054</v>
+        <v>9.830546055757113</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.61138064823413</v>
+        <v>98.15666943714719</v>
       </c>
       <c r="T22" t="n">
-        <v>72.73766186980234</v>
+        <v>72.73766186980239</v>
       </c>
       <c r="U22" t="n">
-        <v>127.1232977369164</v>
+        <v>127.1232977369165</v>
       </c>
       <c r="V22" t="n">
         <v>100.9447369631637</v>
       </c>
       <c r="W22" t="n">
-        <v>173.6569118226915</v>
+        <v>126.111623033777</v>
       </c>
       <c r="X22" t="n">
-        <v>71.75672502958005</v>
+        <v>71.75672502958011</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.63159278564774</v>
+        <v>62.6315927856478</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>232.919889688841</v>
+        <v>232.9198896888411</v>
       </c>
       <c r="C23" t="n">
-        <v>220.9312066465227</v>
+        <v>220.9312066465228</v>
       </c>
       <c r="D23" t="n">
-        <v>211.9125106910507</v>
+        <v>211.9125106910508</v>
       </c>
       <c r="E23" t="n">
-        <v>233.6546482609562</v>
+        <v>233.6546482609563</v>
       </c>
       <c r="F23" t="n">
-        <v>252.8264643489334</v>
+        <v>252.8264643489335</v>
       </c>
       <c r="G23" t="n">
-        <v>254.2764346668042</v>
+        <v>254.2764346668043</v>
       </c>
       <c r="H23" t="n">
-        <v>167.360275888082</v>
+        <v>167.3602758880821</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>17.16032758791727</v>
+        <v>17.16032758791735</v>
       </c>
       <c r="T23" t="n">
-        <v>62.81650721781341</v>
+        <v>62.81650721781349</v>
       </c>
       <c r="U23" t="n">
-        <v>95.11460468278381</v>
+        <v>95.11460468278389</v>
       </c>
       <c r="V23" t="n">
-        <v>176.4262669290201</v>
+        <v>176.4262669290202</v>
       </c>
       <c r="W23" t="n">
-        <v>201.726366406977</v>
+        <v>201.7263664069771</v>
       </c>
       <c r="X23" t="n">
-        <v>221.0266246397236</v>
+        <v>221.0266246397237</v>
       </c>
       <c r="Y23" t="n">
-        <v>232.4232224359224</v>
+        <v>232.4232224359225</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.53660056353806</v>
+        <v>24.53660056353814</v>
       </c>
       <c r="C25" t="n">
-        <v>10.73659540893854</v>
+        <v>10.73659540893863</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9.830546055757027</v>
+        <v>9.830546055757113</v>
       </c>
       <c r="H25" t="n">
-        <v>47.54528878891406</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.5452887889131</v>
       </c>
       <c r="S25" t="n">
-        <v>50.61138064823412</v>
+        <v>50.6113806482342</v>
       </c>
       <c r="T25" t="n">
-        <v>72.73766186980231</v>
+        <v>72.73766186980239</v>
       </c>
       <c r="U25" t="n">
-        <v>127.1232977369164</v>
+        <v>127.1232977369165</v>
       </c>
       <c r="V25" t="n">
-        <v>100.9447369631636</v>
+        <v>100.9447369631637</v>
       </c>
       <c r="W25" t="n">
-        <v>126.1116230337769</v>
+        <v>126.111623033777</v>
       </c>
       <c r="X25" t="n">
-        <v>71.75672502958002</v>
+        <v>71.75672502958011</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.63159278564771</v>
+        <v>62.6315927856478</v>
       </c>
     </row>
     <row r="26">
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>286.4783612038073</v>
+        <v>286.4783612038072</v>
       </c>
       <c r="C29" t="n">
-        <v>274.489678161489</v>
+        <v>274.4896781614889</v>
       </c>
       <c r="D29" t="n">
-        <v>265.470982206017</v>
+        <v>265.4709822060169</v>
       </c>
       <c r="E29" t="n">
         <v>287.2131197759225</v>
@@ -2807,10 +2807,10 @@
         <v>307.8349061817705</v>
       </c>
       <c r="H29" t="n">
-        <v>220.9187474030483</v>
+        <v>220.9187474030482</v>
       </c>
       <c r="I29" t="n">
-        <v>48.83195394859334</v>
+        <v>48.83195394859332</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.71879910288351</v>
+        <v>70.71879910288349</v>
       </c>
       <c r="T29" t="n">
-        <v>116.3749787327797</v>
+        <v>116.3749787327796</v>
       </c>
       <c r="U29" t="n">
         <v>148.67307619775</v>
@@ -2852,7 +2852,7 @@
         <v>229.9847384439863</v>
       </c>
       <c r="W29" t="n">
-        <v>255.2848379219433</v>
+        <v>255.2848379219432</v>
       </c>
       <c r="X29" t="n">
         <v>274.5850961546898</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.0950720785043</v>
+        <v>78.09507207850429</v>
       </c>
       <c r="C31" t="n">
-        <v>64.29506692390478</v>
+        <v>64.29506692390477</v>
       </c>
       <c r="D31" t="n">
-        <v>47.91643132148317</v>
+        <v>47.91643132148316</v>
       </c>
       <c r="E31" t="n">
-        <v>46.86418117726262</v>
+        <v>46.86418117726261</v>
       </c>
       <c r="F31" t="n">
-        <v>47.33110550544893</v>
+        <v>47.33110550544892</v>
       </c>
       <c r="G31" t="n">
-        <v>63.38901757072327</v>
+        <v>63.38901757072325</v>
       </c>
       <c r="H31" t="n">
-        <v>52.22670983457918</v>
+        <v>52.22670983457917</v>
       </c>
       <c r="I31" t="n">
-        <v>32.61678475894262</v>
+        <v>32.61678475894261</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65412442601094</v>
+        <v>34.65412442601092</v>
       </c>
       <c r="S31" t="n">
-        <v>104.1698521632004</v>
+        <v>104.1698521632003</v>
       </c>
       <c r="T31" t="n">
-        <v>126.2961333847686</v>
+        <v>126.2961333847685</v>
       </c>
       <c r="U31" t="n">
         <v>180.6817692518826</v>
@@ -3010,13 +3010,13 @@
         <v>154.5032084781299</v>
       </c>
       <c r="W31" t="n">
-        <v>179.6700945487432</v>
+        <v>179.6700945487431</v>
       </c>
       <c r="X31" t="n">
         <v>125.3151965445463</v>
       </c>
       <c r="Y31" t="n">
-        <v>116.190064300614</v>
+        <v>116.1900643006139</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>253.9521551122956</v>
+        <v>253.9521551122957</v>
       </c>
       <c r="C32" t="n">
         <v>241.9634720699774</v>
       </c>
       <c r="D32" t="n">
-        <v>232.9447761145053</v>
+        <v>232.9447761145054</v>
       </c>
       <c r="E32" t="n">
         <v>254.6869136844109</v>
@@ -3044,10 +3044,10 @@
         <v>275.3087000902589</v>
       </c>
       <c r="H32" t="n">
-        <v>188.3925413115366</v>
+        <v>188.3925413115367</v>
       </c>
       <c r="I32" t="n">
-        <v>16.30574785708174</v>
+        <v>16.30574785708177</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.19259301137191</v>
+        <v>38.19259301137194</v>
       </c>
       <c r="T32" t="n">
-        <v>83.84877264126806</v>
+        <v>83.84877264126808</v>
       </c>
       <c r="U32" t="n">
         <v>116.1468701062385</v>
       </c>
       <c r="V32" t="n">
-        <v>197.4585323524747</v>
+        <v>197.4585323524748</v>
       </c>
       <c r="W32" t="n">
         <v>222.7586318304317</v>
@@ -3095,7 +3095,7 @@
         <v>242.0588900631783</v>
       </c>
       <c r="Y32" t="n">
-        <v>253.455487859377</v>
+        <v>253.4554878593771</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>45.56886598699271</v>
+        <v>45.56886598699273</v>
       </c>
       <c r="C34" t="n">
-        <v>31.76886083239319</v>
+        <v>31.76886083239322</v>
       </c>
       <c r="D34" t="n">
-        <v>15.39022522997158</v>
+        <v>15.39022522997161</v>
       </c>
       <c r="E34" t="n">
-        <v>14.33797508575103</v>
+        <v>14.33797508575105</v>
       </c>
       <c r="F34" t="n">
-        <v>14.80489941393733</v>
+        <v>14.80489941393736</v>
       </c>
       <c r="G34" t="n">
-        <v>30.86281147921167</v>
+        <v>30.8628114792117</v>
       </c>
       <c r="H34" t="n">
-        <v>19.70050374306758</v>
+        <v>19.70050374306761</v>
       </c>
       <c r="I34" t="n">
-        <v>0.09057866743102316</v>
+        <v>0.09057866743105158</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.127918334499343</v>
+        <v>2.127918334499372</v>
       </c>
       <c r="S34" t="n">
-        <v>71.64364607168876</v>
+        <v>71.64364607168879</v>
       </c>
       <c r="T34" t="n">
-        <v>93.76992729325696</v>
+        <v>93.76992729325698</v>
       </c>
       <c r="U34" t="n">
         <v>148.1555631603711</v>
@@ -3250,10 +3250,10 @@
         <v>147.1438884572316</v>
       </c>
       <c r="X34" t="n">
-        <v>92.78899045303467</v>
+        <v>92.7889904530347</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.66385820910236</v>
+        <v>83.66385820910239</v>
       </c>
     </row>
     <row r="35">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>9.830546055757084</v>
+        <v>57.37583484467058</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>50.61138064823417</v>
       </c>
       <c r="T37" t="n">
-        <v>120.2829506587158</v>
+        <v>72.73766186980237</v>
       </c>
       <c r="U37" t="n">
         <v>127.1232977369165</v>
@@ -3661,7 +3661,7 @@
         <v>24.53660056353812</v>
       </c>
       <c r="C40" t="n">
-        <v>10.7365954089386</v>
+        <v>58.28188419785209</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>127.1232977369165</v>
       </c>
       <c r="V40" t="n">
-        <v>148.4900257520772</v>
+        <v>100.9447369631637</v>
       </c>
       <c r="W40" t="n">
         <v>126.111623033777</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>98.15666943714865</v>
+        <v>50.61138064823406</v>
       </c>
       <c r="T43" t="n">
-        <v>72.73766186980225</v>
+        <v>120.2829506587168</v>
       </c>
       <c r="U43" t="n">
         <v>127.1232977369164</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>232.9198896888409</v>
+        <v>232.9198896888411</v>
       </c>
       <c r="C44" t="n">
-        <v>220.9312066465227</v>
+        <v>220.9312066465228</v>
       </c>
       <c r="D44" t="n">
-        <v>211.9125106910506</v>
+        <v>211.9125106910508</v>
       </c>
       <c r="E44" t="n">
-        <v>233.6546482609562</v>
+        <v>233.6546482609563</v>
       </c>
       <c r="F44" t="n">
-        <v>252.8264643489333</v>
+        <v>252.8264643489335</v>
       </c>
       <c r="G44" t="n">
-        <v>254.2764346668042</v>
+        <v>254.2764346668043</v>
       </c>
       <c r="H44" t="n">
-        <v>167.3602758880819</v>
+        <v>167.3602758880821</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>17.16032758791843</v>
+        <v>17.16032758791735</v>
       </c>
       <c r="T44" t="n">
-        <v>62.81650721781335</v>
+        <v>62.81650721781349</v>
       </c>
       <c r="U44" t="n">
-        <v>95.11460468278375</v>
+        <v>95.11460468278389</v>
       </c>
       <c r="V44" t="n">
-        <v>176.42626692902</v>
+        <v>176.4262669290202</v>
       </c>
       <c r="W44" t="n">
-        <v>201.726366406977</v>
+        <v>201.7263664069771</v>
       </c>
       <c r="X44" t="n">
-        <v>221.0266246397236</v>
+        <v>221.0266246397237</v>
       </c>
       <c r="Y44" t="n">
-        <v>232.4232224359223</v>
+        <v>232.4232224359225</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.536600563538</v>
+        <v>24.53660056353814</v>
       </c>
       <c r="C46" t="n">
-        <v>10.73659540893848</v>
+        <v>10.73659540893863</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>9.830546055756971</v>
+        <v>9.830546055757113</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>47.5452887889132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>50.61138064823406</v>
+        <v>50.6113806482342</v>
       </c>
       <c r="T46" t="n">
-        <v>120.2829506587168</v>
+        <v>72.73766186980239</v>
       </c>
       <c r="U46" t="n">
-        <v>127.1232977369164</v>
+        <v>127.1232977369165</v>
       </c>
       <c r="V46" t="n">
-        <v>100.9447369631636</v>
+        <v>100.9447369631637</v>
       </c>
       <c r="W46" t="n">
-        <v>126.1116230337769</v>
+        <v>126.111623033777</v>
       </c>
       <c r="X46" t="n">
-        <v>71.75672502957997</v>
+        <v>71.75672502958011</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.63159278564765</v>
+        <v>62.6315927856478</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C2" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D2" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="E2" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="F2" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="I2" t="n">
         <v>0.8007743026345088</v>
@@ -4340,13 +4340,13 @@
         <v>20.6199382928386</v>
       </c>
       <c r="N2" t="n">
-        <v>30.12913313662339</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O2" t="n">
         <v>30.12913313662339</v>
       </c>
       <c r="P2" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="Q2" t="n">
         <v>40.03871513172544</v>
@@ -4364,7 +4364,7 @@
         <v>40.03871513172544</v>
       </c>
       <c r="V2" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="W2" t="n">
         <v>29.92792848229982</v>
@@ -4373,7 +4373,7 @@
         <v>29.92792848229982</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="D3" t="n">
         <v>0.8007743026345088</v>
@@ -4407,25 +4407,25 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J3" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K3" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="L3" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="M3" t="n">
         <v>10.71035629773655</v>
       </c>
       <c r="N3" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O3" t="n">
-        <v>20.21955114152135</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="P3" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q3" t="n">
         <v>40.03871513172544</v>
@@ -4443,16 +4443,16 @@
         <v>29.92792848229982</v>
       </c>
       <c r="V3" t="n">
-        <v>19.81714183287421</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W3" t="n">
         <v>19.81714183287421</v>
       </c>
       <c r="X3" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="C4" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="D4" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="E4" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="F4" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G4" t="n">
-        <v>21.02234760148574</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="H4" t="n">
         <v>10.91156095206012</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="J4" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="K4" t="n">
-        <v>10.71035629773655</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="L4" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M4" t="n">
-        <v>10.71035629773655</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N4" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O4" t="n">
         <v>30.12913313662339</v>
@@ -4507,31 +4507,31 @@
         <v>40.03871513172544</v>
       </c>
       <c r="Q4" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="R4" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S4" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T4" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U4" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="V4" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="W4" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X4" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="C5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="D5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E5" t="n">
         <v>21.02234760148574</v>
@@ -4565,19 +4565,19 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K5" t="n">
-        <v>10.3099691464193</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L5" t="n">
-        <v>10.3099691464193</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="M5" t="n">
-        <v>20.21955114152135</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="N5" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O5" t="n">
         <v>40.03871513172544</v>
@@ -4589,28 +4589,28 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R5" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S5" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T5" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U5" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V5" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="W5" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="X5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="Y5" t="n">
-        <v>31.13313425091136</v>
+        <v>21.02234760148574</v>
       </c>
     </row>
     <row r="6">
@@ -4623,40 +4623,40 @@
         <v>29.92792848229982</v>
       </c>
       <c r="C6" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="D6" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="E6" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="F6" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G6" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H6" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I6" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J6" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="K6" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="L6" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="M6" t="n">
+        <v>10.3099691464193</v>
+      </c>
+      <c r="N6" t="n">
         <v>20.21955114152135</v>
-      </c>
-      <c r="N6" t="n">
-        <v>30.12913313662339</v>
       </c>
       <c r="O6" t="n">
         <v>30.12913313662339</v>
@@ -4668,19 +4668,19 @@
         <v>40.03871513172544</v>
       </c>
       <c r="R6" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="S6" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T6" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U6" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V6" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="W6" t="n">
         <v>29.92792848229982</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="J7" t="n">
         <v>0.8007743026345088</v>
@@ -4729,16 +4729,16 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="L7" t="n">
-        <v>10.3099691464193</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="M7" t="n">
+        <v>10.71035629773655</v>
+      </c>
+      <c r="N7" t="n">
         <v>20.21955114152135</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>30.12913313662339</v>
-      </c>
-      <c r="O7" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="P7" t="n">
         <v>40.03871513172544</v>
@@ -4747,28 +4747,28 @@
         <v>29.92792848229982</v>
       </c>
       <c r="R7" t="n">
-        <v>19.81714183287421</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="S7" t="n">
-        <v>19.81714183287421</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="T7" t="n">
-        <v>9.70635518344859</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="U7" t="n">
-        <v>9.70635518344859</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>434.22314444142</v>
+        <v>422.159561936012</v>
       </c>
       <c r="C8" t="n">
-        <v>434.22314444142</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="D8" t="n">
-        <v>434.22314444142</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="E8" t="n">
-        <v>434.22314444142</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F8" t="n">
-        <v>297.1227411106808</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G8" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H8" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I8" t="n">
         <v>10.85835194379454</v>
@@ -4808,46 +4808,46 @@
         <v>10.85835194379454</v>
       </c>
       <c r="L8" t="n">
-        <v>10.85835194379454</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M8" t="n">
-        <v>45.36902758981768</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N8" t="n">
-        <v>179.7411328942751</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="O8" t="n">
-        <v>314.1132381987326</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q8" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R8" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="S8" t="n">
-        <v>434.22314444142</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="T8" t="n">
-        <v>434.22314444142</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="U8" t="n">
-        <v>434.22314444142</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="V8" t="n">
-        <v>434.22314444142</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="W8" t="n">
-        <v>434.22314444142</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="X8" t="n">
-        <v>434.22314444142</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y8" t="n">
-        <v>434.22314444142</v>
+        <v>422.159561936012</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="C9" t="n">
-        <v>208.9325216231946</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="D9" t="n">
-        <v>71.83211829245539</v>
+        <v>511.3189107546767</v>
       </c>
       <c r="E9" t="n">
-        <v>71.83211829245539</v>
+        <v>374.2185074239376</v>
       </c>
       <c r="F9" t="n">
-        <v>10.85835194379454</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="G9" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="H9" t="n">
         <v>10.85835194379454</v>
@@ -4881,19 +4881,19 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J9" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K9" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L9" t="n">
-        <v>71.11249847690068</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M9" t="n">
-        <v>205.4846037813581</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N9" t="n">
-        <v>274.1733865808121</v>
+        <v>145.230457248252</v>
       </c>
       <c r="O9" t="n">
         <v>274.1733865808121</v>
@@ -4905,28 +4905,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V9" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W9" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X9" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y9" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.91559052962182</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C10" t="n">
-        <v>70.91559052962182</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="D10" t="n">
-        <v>70.91559052962182</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="E10" t="n">
-        <v>70.91559052962182</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F10" t="n">
-        <v>70.91559052962182</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="G10" t="n">
-        <v>70.91559052962182</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="H10" t="n">
         <v>70.91559052962182</v>
@@ -4987,25 +4987,25 @@
         <v>542.917597189727</v>
       </c>
       <c r="S10" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T10" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U10" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V10" t="n">
-        <v>405.8171938589878</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W10" t="n">
-        <v>268.7167905282487</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X10" t="n">
-        <v>131.6163871975095</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y10" t="n">
-        <v>70.91559052962182</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1115.225717913359</v>
+        <v>1599.90622895689</v>
       </c>
       <c r="C11" t="n">
-        <v>1115.225717913359</v>
+        <v>1301.350497492862</v>
       </c>
       <c r="D11" t="n">
-        <v>1115.225717913359</v>
+        <v>1011.90455992325</v>
       </c>
       <c r="E11" t="n">
-        <v>803.8180252226307</v>
+        <v>700.4968672325217</v>
       </c>
       <c r="F11" t="n">
-        <v>473.0448617359657</v>
+        <v>700.4968672325217</v>
       </c>
       <c r="G11" t="n">
-        <v>140.8070817666035</v>
+        <v>368.2590872631591</v>
       </c>
       <c r="H11" t="n">
-        <v>123.8154070702836</v>
+        <v>123.8154070702835</v>
       </c>
       <c r="I11" t="n">
-        <v>53.19677077079673</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="J11" t="n">
-        <v>165.804400206654</v>
+        <v>165.8044002066536</v>
       </c>
       <c r="K11" t="n">
-        <v>466.807264091487</v>
+        <v>466.8072640914867</v>
       </c>
       <c r="L11" t="n">
-        <v>890.1979401336872</v>
+        <v>890.1979401336866</v>
       </c>
       <c r="M11" t="n">
-        <v>1367.451304241078</v>
+        <v>1367.451304241077</v>
       </c>
       <c r="N11" t="n">
-        <v>1831.156298338519</v>
+        <v>1831.156298338518</v>
       </c>
       <c r="O11" t="n">
         <v>2216.776785817477</v>
       </c>
       <c r="P11" t="n">
-        <v>2513.737490374424</v>
+        <v>2513.737490374423</v>
       </c>
       <c r="Q11" t="n">
         <v>2659.838538539836</v>
@@ -5066,25 +5066,25 @@
         <v>2659.838538539836</v>
       </c>
       <c r="S11" t="n">
-        <v>2567.111977842077</v>
+        <v>2567.111977842076</v>
       </c>
       <c r="T11" t="n">
-        <v>2428.268063982806</v>
+        <v>2567.111977842076</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.799809249827</v>
+        <v>2567.111977842076</v>
       </c>
       <c r="V11" t="n">
-        <v>2003.198562348933</v>
+        <v>2567.111977842076</v>
       </c>
       <c r="W11" t="n">
-        <v>1724.041659409699</v>
+        <v>2287.955074902842</v>
       </c>
       <c r="X11" t="n">
-        <v>1425.389546134357</v>
+        <v>2220.735569492741</v>
       </c>
       <c r="Y11" t="n">
-        <v>1115.225717913359</v>
+        <v>1910.571741271744</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>112.5860206093153</v>
       </c>
       <c r="I12" t="n">
-        <v>53.19677077079673</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="J12" t="n">
-        <v>53.19677077079673</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="K12" t="n">
-        <v>184.6844915017313</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="L12" t="n">
-        <v>606.0911438838872</v>
+        <v>474.6034231529525</v>
       </c>
       <c r="M12" t="n">
-        <v>1155.989345644585</v>
+        <v>1024.50162491365</v>
       </c>
       <c r="N12" t="n">
-        <v>1733.836619539988</v>
+        <v>1602.348898809053</v>
       </c>
       <c r="O12" t="n">
-        <v>2186.945751958954</v>
+        <v>2055.458031228019</v>
       </c>
       <c r="P12" t="n">
-        <v>2537.926659344899</v>
+        <v>2406.438938613964</v>
       </c>
       <c r="Q12" t="n">
         <v>2537.926659344899</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>396.6398923207261</v>
+        <v>437.1299897278128</v>
       </c>
       <c r="C13" t="n">
-        <v>310.401949985571</v>
+        <v>350.8920473926579</v>
       </c>
       <c r="D13" t="n">
-        <v>240.7080840164984</v>
+        <v>281.1981814235854</v>
       </c>
       <c r="E13" t="n">
-        <v>172.077096980982</v>
+        <v>212.567194388069</v>
       </c>
       <c r="F13" t="n">
-        <v>172.077096980982</v>
+        <v>212.567194388069</v>
       </c>
       <c r="G13" t="n">
-        <v>172.077096980982</v>
+        <v>127.2444534197641</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4364482928587</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="I13" t="n">
-        <v>53.19677077079673</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="J13" t="n">
-        <v>91.22730408520147</v>
+        <v>91.22730408520152</v>
       </c>
       <c r="K13" t="n">
-        <v>231.4855575532403</v>
+        <v>231.4855575532404</v>
       </c>
       <c r="L13" t="n">
-        <v>445.7199909201554</v>
+        <v>445.7199909201556</v>
       </c>
       <c r="M13" t="n">
-        <v>679.0753930536567</v>
+        <v>679.0753930536569</v>
       </c>
       <c r="N13" t="n">
-        <v>912.0596732882456</v>
+        <v>912.0596732882457</v>
       </c>
       <c r="O13" t="n">
         <v>1122.578074331434</v>
       </c>
       <c r="P13" t="n">
-        <v>1293.223008517009</v>
+        <v>1293.22300851701</v>
       </c>
       <c r="Q13" t="n">
         <v>1355.143093323149</v>
       </c>
       <c r="R13" t="n">
-        <v>1355.143093323149</v>
+        <v>1298.845496945463</v>
       </c>
       <c r="S13" t="n">
-        <v>1228.62759014022</v>
+        <v>1176.50444982863</v>
       </c>
       <c r="T13" t="n">
-        <v>1228.62759014022</v>
+        <v>1027.639167634016</v>
       </c>
       <c r="U13" t="n">
-        <v>1024.82732222125</v>
+        <v>823.8388997150453</v>
       </c>
       <c r="V13" t="n">
-        <v>847.470044982837</v>
+        <v>823.8388997150453</v>
       </c>
       <c r="W13" t="n">
-        <v>644.6916707034007</v>
+        <v>823.8388997150453</v>
       </c>
       <c r="X13" t="n">
-        <v>496.8172338019412</v>
+        <v>675.9644628135859</v>
       </c>
       <c r="Y13" t="n">
-        <v>496.8172338019412</v>
+        <v>537.3073312090278</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1229.629707232378</v>
+        <v>1632.123660979526</v>
       </c>
       <c r="C14" t="n">
-        <v>931.07397576835</v>
+        <v>1632.123660979526</v>
       </c>
       <c r="D14" t="n">
-        <v>641.6280381987382</v>
+        <v>1342.677723409914</v>
       </c>
       <c r="E14" t="n">
-        <v>641.6280381987382</v>
+        <v>1031.270030719186</v>
       </c>
       <c r="F14" t="n">
-        <v>641.6280381987382</v>
+        <v>700.4968672325214</v>
       </c>
       <c r="G14" t="n">
-        <v>309.3902582293754</v>
+        <v>368.2590872631588</v>
       </c>
       <c r="H14" t="n">
-        <v>123.8154070702838</v>
+        <v>123.8154070702833</v>
       </c>
       <c r="I14" t="n">
-        <v>53.19677077079673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J14" t="n">
-        <v>165.8044002066537</v>
+        <v>165.8044002066536</v>
       </c>
       <c r="K14" t="n">
-        <v>466.807264091487</v>
+        <v>466.8072640914866</v>
       </c>
       <c r="L14" t="n">
-        <v>890.1979401336872</v>
+        <v>890.1979401336862</v>
       </c>
       <c r="M14" t="n">
-        <v>1367.451304241078</v>
+        <v>1367.451304241077</v>
       </c>
       <c r="N14" t="n">
-        <v>1831.156298338519</v>
+        <v>1831.156298338517</v>
       </c>
       <c r="O14" t="n">
-        <v>2216.776785817477</v>
+        <v>2216.776785817476</v>
       </c>
       <c r="P14" t="n">
-        <v>2513.737490374424</v>
+        <v>2513.737490374423</v>
       </c>
       <c r="Q14" t="n">
-        <v>2659.838538539836</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="R14" t="n">
-        <v>2659.838538539836</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="S14" t="n">
-        <v>2567.111977842077</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="T14" t="n">
-        <v>2428.268063982806</v>
+        <v>2520.994624680564</v>
       </c>
       <c r="U14" t="n">
-        <v>2428.268063982806</v>
+        <v>2520.598189508956</v>
       </c>
       <c r="V14" t="n">
-        <v>2428.268063982806</v>
+        <v>2520.598189508956</v>
       </c>
       <c r="W14" t="n">
-        <v>2149.111161043572</v>
+        <v>2241.441286569722</v>
       </c>
       <c r="X14" t="n">
-        <v>1850.45904776823</v>
+        <v>1942.78917329438</v>
       </c>
       <c r="Y14" t="n">
-        <v>1540.295219547233</v>
+        <v>1942.78917329438</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>112.5860206093153</v>
       </c>
       <c r="I15" t="n">
-        <v>53.19677077079673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J15" t="n">
-        <v>53.19677077079673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="K15" t="n">
-        <v>53.19677077079673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="L15" t="n">
-        <v>474.6034231529526</v>
+        <v>474.6034231529525</v>
       </c>
       <c r="M15" t="n">
         <v>1024.50162491365</v>
@@ -5370,10 +5370,10 @@
         <v>1602.348898809053</v>
       </c>
       <c r="O15" t="n">
-        <v>2055.45803122802</v>
+        <v>2055.458031228019</v>
       </c>
       <c r="P15" t="n">
-        <v>2347.476709609821</v>
+        <v>2406.438938613964</v>
       </c>
       <c r="Q15" t="n">
         <v>2537.926659344899</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.8068719101312</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="C16" t="n">
-        <v>266.8068719101312</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="D16" t="n">
-        <v>266.8068719101312</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="E16" t="n">
-        <v>266.8068719101312</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="F16" t="n">
-        <v>266.8068719101312</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="G16" t="n">
-        <v>181.4841309418262</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4364482928587</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="I16" t="n">
-        <v>53.19677077079673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J16" t="n">
-        <v>91.22730408520141</v>
+        <v>91.22730408520161</v>
       </c>
       <c r="K16" t="n">
-        <v>231.4855575532403</v>
+        <v>231.4855575532407</v>
       </c>
       <c r="L16" t="n">
-        <v>445.7199909201553</v>
+        <v>445.7199909201561</v>
       </c>
       <c r="M16" t="n">
-        <v>679.0753930536566</v>
+        <v>679.0753930536576</v>
       </c>
       <c r="N16" t="n">
-        <v>912.0596732882454</v>
+        <v>912.0596732882466</v>
       </c>
       <c r="O16" t="n">
-        <v>1122.578074331434</v>
+        <v>1122.578074331435</v>
       </c>
       <c r="P16" t="n">
-        <v>1293.223008517009</v>
+        <v>1293.223008517011</v>
       </c>
       <c r="Q16" t="n">
-        <v>1355.143093323148</v>
+        <v>1355.14309332315</v>
       </c>
       <c r="R16" t="n">
-        <v>1355.143093323148</v>
+        <v>1298.845496945464</v>
       </c>
       <c r="S16" t="n">
-        <v>1238.442546627338</v>
+        <v>1172.706882389461</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.577264432724</v>
+        <v>1023.841600194848</v>
       </c>
       <c r="U16" t="n">
-        <v>885.7769965137536</v>
+        <v>820.0413322758772</v>
       </c>
       <c r="V16" t="n">
-        <v>708.4197192753409</v>
+        <v>642.6840550374646</v>
       </c>
       <c r="W16" t="n">
-        <v>505.6413449959047</v>
+        <v>439.9056807580288</v>
       </c>
       <c r="X16" t="n">
-        <v>505.6413449959047</v>
+        <v>292.0312438565695</v>
       </c>
       <c r="Y16" t="n">
-        <v>366.9842133913464</v>
+        <v>153.3741122520116</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1407.703377338826</v>
+        <v>1407.703377338827</v>
       </c>
       <c r="C17" t="n">
         <v>1184.540542342339</v>
       </c>
       <c r="D17" t="n">
-        <v>970.4875012402675</v>
+        <v>970.4875012402676</v>
       </c>
       <c r="E17" t="n">
         <v>734.4727050170794</v>
@@ -5504,61 +5504,61 @@
         <v>479.0924379979547</v>
       </c>
       <c r="G17" t="n">
-        <v>222.2475544961321</v>
+        <v>222.2475544961322</v>
       </c>
       <c r="H17" t="n">
-        <v>53.19677077079673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="I17" t="n">
-        <v>53.19677077079673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J17" t="n">
-        <v>165.804400206654</v>
+        <v>165.8044002066536</v>
       </c>
       <c r="K17" t="n">
-        <v>466.807264091487</v>
+        <v>466.8072640914867</v>
       </c>
       <c r="L17" t="n">
-        <v>890.1979401336871</v>
+        <v>890.1979401336868</v>
       </c>
       <c r="M17" t="n">
-        <v>1367.451304241078</v>
+        <v>1367.451304241077</v>
       </c>
       <c r="N17" t="n">
-        <v>1831.156298338519</v>
+        <v>1831.156298338518</v>
       </c>
       <c r="O17" t="n">
-        <v>2216.776785817477</v>
+        <v>2216.776785817476</v>
       </c>
       <c r="P17" t="n">
-        <v>2513.737490374424</v>
+        <v>2513.737490374423</v>
       </c>
       <c r="Q17" t="n">
-        <v>2659.838538539836</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="R17" t="n">
-        <v>2659.838538539836</v>
+        <v>2659.838538539835</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.504874309617</v>
+        <v>2642.504874309615</v>
       </c>
       <c r="T17" t="n">
-        <v>2579.053856917887</v>
+        <v>2579.053856917885</v>
       </c>
       <c r="U17" t="n">
         <v>2482.978498652447</v>
       </c>
       <c r="V17" t="n">
-        <v>2304.770148219093</v>
+        <v>2304.770148219094</v>
       </c>
       <c r="W17" t="n">
-        <v>2101.006141747399</v>
+        <v>2101.0061417474</v>
       </c>
       <c r="X17" t="n">
-        <v>1877.746924939597</v>
+        <v>1877.746924939598</v>
       </c>
       <c r="Y17" t="n">
-        <v>1642.97599318614</v>
+        <v>1642.975993186141</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>112.5860206093153</v>
       </c>
       <c r="I18" t="n">
-        <v>53.19677077079673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J18" t="n">
         <v>137.637410226932</v>
       </c>
       <c r="K18" t="n">
-        <v>408.4665315604908</v>
+        <v>408.4665315604907</v>
       </c>
       <c r="L18" t="n">
-        <v>829.8731839426466</v>
+        <v>829.8731839426464</v>
       </c>
       <c r="M18" t="n">
         <v>1379.771385703344</v>
       </c>
       <c r="N18" t="n">
-        <v>1543.386669804909</v>
+        <v>1543.38666980491</v>
       </c>
       <c r="O18" t="n">
         <v>1996.495802223876</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.97166113917615</v>
+        <v>121.9972053704015</v>
       </c>
       <c r="C19" t="n">
-        <v>63.12661527156143</v>
+        <v>111.1521595027867</v>
       </c>
       <c r="D19" t="n">
-        <v>63.12661527156143</v>
+        <v>111.1521595027867</v>
       </c>
       <c r="E19" t="n">
-        <v>63.12661527156143</v>
+        <v>111.1521595027867</v>
       </c>
       <c r="F19" t="n">
-        <v>63.12661527156143</v>
+        <v>111.1521595027867</v>
       </c>
       <c r="G19" t="n">
-        <v>53.19677077079673</v>
+        <v>101.222315002022</v>
       </c>
       <c r="H19" t="n">
-        <v>53.19677077079673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="I19" t="n">
-        <v>53.19677077079673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="J19" t="n">
-        <v>53.19677077079673</v>
+        <v>53.1967707707967</v>
       </c>
       <c r="K19" t="n">
-        <v>111.7362197770139</v>
+        <v>111.7362197770138</v>
       </c>
       <c r="L19" t="n">
-        <v>244.2518486821072</v>
+        <v>244.2518486821071</v>
       </c>
       <c r="M19" t="n">
-        <v>395.8884463537869</v>
+        <v>395.8884463537867</v>
       </c>
       <c r="N19" t="n">
-        <v>547.153922126554</v>
+        <v>547.1539221265537</v>
       </c>
       <c r="O19" t="n">
-        <v>675.9535187079204</v>
+        <v>675.95351870792</v>
       </c>
       <c r="P19" t="n">
-        <v>764.8796484316745</v>
+        <v>764.8796484316741</v>
       </c>
       <c r="Q19" t="n">
-        <v>764.8796484316745</v>
+        <v>764.8796484316741</v>
       </c>
       <c r="R19" t="n">
-        <v>764.8796484316745</v>
+        <v>764.8796484316741</v>
       </c>
       <c r="S19" t="n">
-        <v>713.7570417162865</v>
+        <v>713.757041716286</v>
       </c>
       <c r="T19" t="n">
-        <v>640.2846559892134</v>
+        <v>640.2846559892129</v>
       </c>
       <c r="U19" t="n">
-        <v>511.8772845377827</v>
+        <v>511.8772845377821</v>
       </c>
       <c r="V19" t="n">
-        <v>361.887359535684</v>
+        <v>409.9129037669096</v>
       </c>
       <c r="W19" t="n">
-        <v>234.5018817237881</v>
+        <v>282.5274259550137</v>
       </c>
       <c r="X19" t="n">
-        <v>162.0203412898689</v>
+        <v>210.0458855210944</v>
       </c>
       <c r="Y19" t="n">
-        <v>98.75610615285099</v>
+        <v>146.7816503840764</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1407.703377338827</v>
+        <v>1407.703377338823</v>
       </c>
       <c r="C20" t="n">
-        <v>1184.540542342339</v>
+        <v>1184.540542342336</v>
       </c>
       <c r="D20" t="n">
-        <v>970.4875012402676</v>
+        <v>970.4875012402641</v>
       </c>
       <c r="E20" t="n">
-        <v>734.4727050170795</v>
+        <v>734.4727050170793</v>
       </c>
       <c r="F20" t="n">
-        <v>479.0924379979548</v>
+        <v>479.0924379979546</v>
       </c>
       <c r="G20" t="n">
-        <v>222.2475544961321</v>
+        <v>222.2475544961322</v>
       </c>
       <c r="H20" t="n">
-        <v>53.19677077079676</v>
+        <v>53.19677077079667</v>
       </c>
       <c r="I20" t="n">
-        <v>53.19677077079676</v>
+        <v>53.19677077079667</v>
       </c>
       <c r="J20" t="n">
-        <v>165.8044002066537</v>
+        <v>165.8044002066514</v>
       </c>
       <c r="K20" t="n">
-        <v>466.8072640914871</v>
+        <v>466.8072640914845</v>
       </c>
       <c r="L20" t="n">
-        <v>890.1979401336873</v>
+        <v>890.1979401336844</v>
       </c>
       <c r="M20" t="n">
-        <v>1367.451304241078</v>
+        <v>1367.451304241075</v>
       </c>
       <c r="N20" t="n">
-        <v>1831.15629833852</v>
+        <v>1831.156298338516</v>
       </c>
       <c r="O20" t="n">
-        <v>2216.776785817478</v>
+        <v>2216.776785817474</v>
       </c>
       <c r="P20" t="n">
-        <v>2513.737490374425</v>
+        <v>2513.737490374421</v>
       </c>
       <c r="Q20" t="n">
-        <v>2659.838538539838</v>
+        <v>2659.838538539833</v>
       </c>
       <c r="R20" t="n">
-        <v>2659.838538539838</v>
+        <v>2659.838538539833</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.504874309619</v>
+        <v>2642.504874309614</v>
       </c>
       <c r="T20" t="n">
-        <v>2579.053856917888</v>
+        <v>2579.053856917883</v>
       </c>
       <c r="U20" t="n">
-        <v>2482.978498652447</v>
+        <v>2482.978498652444</v>
       </c>
       <c r="V20" t="n">
-        <v>2304.770148219094</v>
+        <v>2304.77014821909</v>
       </c>
       <c r="W20" t="n">
-        <v>2101.0061417474</v>
+        <v>2101.006141747396</v>
       </c>
       <c r="X20" t="n">
-        <v>1877.746924939598</v>
+        <v>1877.746924939594</v>
       </c>
       <c r="Y20" t="n">
-        <v>1642.975993186141</v>
+        <v>1642.975993186137</v>
       </c>
     </row>
     <row r="21">
@@ -5820,31 +5820,31 @@
         <v>338.468546676842</v>
       </c>
       <c r="G21" t="n">
-        <v>210.0012456921628</v>
+        <v>210.0012456921627</v>
       </c>
       <c r="H21" t="n">
         <v>112.5860206093153</v>
       </c>
       <c r="I21" t="n">
-        <v>53.19677077079676</v>
+        <v>53.19677077079667</v>
       </c>
       <c r="J21" t="n">
-        <v>53.19677077079676</v>
+        <v>53.19677077079667</v>
       </c>
       <c r="K21" t="n">
-        <v>184.6844915017305</v>
+        <v>324.0258921043554</v>
       </c>
       <c r="L21" t="n">
-        <v>606.0911438838865</v>
+        <v>745.4325444865111</v>
       </c>
       <c r="M21" t="n">
-        <v>1155.989345644584</v>
+        <v>1295.330746247208</v>
       </c>
       <c r="N21" t="n">
-        <v>1733.836619539987</v>
+        <v>1873.178020142611</v>
       </c>
       <c r="O21" t="n">
-        <v>2186.945751958954</v>
+        <v>2326.287152561578</v>
       </c>
       <c r="P21" t="n">
         <v>2537.926659344899</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.97166113917618</v>
+        <v>73.97166113917621</v>
       </c>
       <c r="C22" t="n">
-        <v>63.12661527156146</v>
+        <v>63.12661527156143</v>
       </c>
       <c r="D22" t="n">
-        <v>63.12661527156146</v>
+        <v>63.12661527156143</v>
       </c>
       <c r="E22" t="n">
-        <v>63.12661527156146</v>
+        <v>63.12661527156143</v>
       </c>
       <c r="F22" t="n">
-        <v>63.12661527156146</v>
+        <v>63.12661527156143</v>
       </c>
       <c r="G22" t="n">
-        <v>53.19677077079676</v>
+        <v>53.19677077079667</v>
       </c>
       <c r="H22" t="n">
-        <v>53.19677077079676</v>
+        <v>53.19677077079667</v>
       </c>
       <c r="I22" t="n">
-        <v>53.19677077079676</v>
+        <v>53.19677077079667</v>
       </c>
       <c r="J22" t="n">
-        <v>53.19677077079676</v>
+        <v>53.19677077079667</v>
       </c>
       <c r="K22" t="n">
-        <v>111.736219777014</v>
+        <v>111.7362197770138</v>
       </c>
       <c r="L22" t="n">
-        <v>244.2518486821075</v>
+        <v>244.251848682107</v>
       </c>
       <c r="M22" t="n">
-        <v>395.8884463537872</v>
+        <v>395.8884463537866</v>
       </c>
       <c r="N22" t="n">
-        <v>547.1539221265544</v>
+        <v>547.1539221265537</v>
       </c>
       <c r="O22" t="n">
-        <v>675.9535187079209</v>
+        <v>675.95351870792</v>
       </c>
       <c r="P22" t="n">
-        <v>764.8796484316752</v>
+        <v>764.8796484316741</v>
       </c>
       <c r="Q22" t="n">
-        <v>764.8796484316752</v>
+        <v>764.8796484316741</v>
       </c>
       <c r="R22" t="n">
-        <v>764.8796484316752</v>
+        <v>764.8796484316741</v>
       </c>
       <c r="S22" t="n">
-        <v>713.7570417162872</v>
+        <v>665.7314974850608</v>
       </c>
       <c r="T22" t="n">
-        <v>640.2846559892141</v>
+        <v>592.2591117579876</v>
       </c>
       <c r="U22" t="n">
-        <v>511.8772845377833</v>
+        <v>463.8517403065568</v>
       </c>
       <c r="V22" t="n">
-        <v>409.9129037669109</v>
+        <v>361.8873595356844</v>
       </c>
       <c r="W22" t="n">
-        <v>234.5018817237882</v>
+        <v>234.5018817237884</v>
       </c>
       <c r="X22" t="n">
-        <v>162.020341289869</v>
+        <v>162.0203412898691</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.75610615285102</v>
+        <v>98.7561061528511</v>
       </c>
     </row>
     <row r="23">
@@ -5969,43 +5969,43 @@
         <v>1184.540542342339</v>
       </c>
       <c r="D23" t="n">
-        <v>970.4875012402676</v>
+        <v>970.4875012402679</v>
       </c>
       <c r="E23" t="n">
-        <v>734.4727050170795</v>
+        <v>734.4727050170796</v>
       </c>
       <c r="F23" t="n">
         <v>479.092437997955</v>
       </c>
       <c r="G23" t="n">
-        <v>222.2475544961321</v>
+        <v>222.2475544961322</v>
       </c>
       <c r="H23" t="n">
-        <v>53.19677077079671</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="I23" t="n">
-        <v>53.19677077079671</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="J23" t="n">
-        <v>165.804400206654</v>
+        <v>165.8044002066545</v>
       </c>
       <c r="K23" t="n">
-        <v>466.807264091487</v>
+        <v>466.8072640914877</v>
       </c>
       <c r="L23" t="n">
-        <v>890.197940133687</v>
+        <v>890.1979401336876</v>
       </c>
       <c r="M23" t="n">
         <v>1367.451304241078</v>
       </c>
       <c r="N23" t="n">
-        <v>1831.156298338518</v>
+        <v>1831.156298338519</v>
       </c>
       <c r="O23" t="n">
-        <v>2216.776785817477</v>
+        <v>2216.776785817478</v>
       </c>
       <c r="P23" t="n">
-        <v>2513.737490374423</v>
+        <v>2513.737490374424</v>
       </c>
       <c r="Q23" t="n">
         <v>2659.838538539836</v>
@@ -6014,22 +6014,22 @@
         <v>2659.838538539836</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.504874309616</v>
+        <v>2642.504874309617</v>
       </c>
       <c r="T23" t="n">
-        <v>2579.053856917885</v>
+        <v>2579.053856917886</v>
       </c>
       <c r="U23" t="n">
-        <v>2482.978498652447</v>
+        <v>2482.978498652448</v>
       </c>
       <c r="V23" t="n">
-        <v>2304.770148219094</v>
+        <v>2304.770148219095</v>
       </c>
       <c r="W23" t="n">
         <v>2101.0061417474</v>
       </c>
       <c r="X23" t="n">
-        <v>1877.746924939598</v>
+        <v>1877.746924939599</v>
       </c>
       <c r="Y23" t="n">
         <v>1642.975993186141</v>
@@ -6057,22 +6057,22 @@
         <v>338.468546676842</v>
       </c>
       <c r="G24" t="n">
-        <v>210.0012456921627</v>
+        <v>210.0012456921628</v>
       </c>
       <c r="H24" t="n">
         <v>112.5860206093153</v>
       </c>
       <c r="I24" t="n">
-        <v>53.19677077079671</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="J24" t="n">
-        <v>53.19677077079671</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="K24" t="n">
-        <v>324.0258921043554</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="L24" t="n">
-        <v>745.4325444865112</v>
+        <v>474.6034231529525</v>
       </c>
       <c r="M24" t="n">
         <v>965.5393959095063</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.9972053704024</v>
+        <v>73.97166113917626</v>
       </c>
       <c r="C25" t="n">
-        <v>111.1521595027877</v>
+        <v>63.12661527156149</v>
       </c>
       <c r="D25" t="n">
-        <v>111.1521595027877</v>
+        <v>63.12661527156149</v>
       </c>
       <c r="E25" t="n">
-        <v>111.1521595027877</v>
+        <v>63.12661527156149</v>
       </c>
       <c r="F25" t="n">
-        <v>111.1521595027877</v>
+        <v>63.12661527156149</v>
       </c>
       <c r="G25" t="n">
-        <v>101.222315002023</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="H25" t="n">
-        <v>53.19677077079671</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="I25" t="n">
-        <v>53.19677077079671</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="J25" t="n">
-        <v>53.19677077079671</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="K25" t="n">
         <v>111.7362197770138</v>
@@ -6169,28 +6169,28 @@
         <v>764.8796484316744</v>
       </c>
       <c r="R25" t="n">
-        <v>764.8796484316744</v>
+        <v>716.854104200449</v>
       </c>
       <c r="S25" t="n">
-        <v>713.7570417162864</v>
+        <v>665.7314974850609</v>
       </c>
       <c r="T25" t="n">
-        <v>640.2846559892133</v>
+        <v>592.2591117579877</v>
       </c>
       <c r="U25" t="n">
-        <v>511.8772845377826</v>
+        <v>463.8517403065569</v>
       </c>
       <c r="V25" t="n">
-        <v>409.9129037669102</v>
+        <v>361.8873595356844</v>
       </c>
       <c r="W25" t="n">
-        <v>282.5274259550143</v>
+        <v>234.5018817237885</v>
       </c>
       <c r="X25" t="n">
-        <v>210.0458855210951</v>
+        <v>162.0203412898692</v>
       </c>
       <c r="Y25" t="n">
-        <v>146.7816503840772</v>
+        <v>98.75610615285116</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1798.089007601438</v>
       </c>
       <c r="C26" t="n">
-        <v>1520.826706428217</v>
+        <v>1520.826706428216</v>
       </c>
       <c r="D26" t="n">
-        <v>1252.674199149412</v>
+        <v>1252.674199149411</v>
       </c>
       <c r="E26" t="n">
-        <v>962.5599367494904</v>
+        <v>962.5599367494898</v>
       </c>
       <c r="F26" t="n">
-        <v>653.0802035536321</v>
+        <v>653.0802035536316</v>
       </c>
       <c r="G26" t="n">
-        <v>342.1358538750761</v>
+        <v>342.1358538750756</v>
       </c>
       <c r="H26" t="n">
         <v>118.9856039730064</v>
@@ -6227,16 +6227,16 @@
         <v>284.8565228900246</v>
       </c>
       <c r="K26" t="n">
-        <v>688.4478822646993</v>
+        <v>630.6483877760915</v>
       </c>
       <c r="L26" t="n">
-        <v>1214.42705379674</v>
+        <v>1156.627559308133</v>
       </c>
       <c r="M26" t="n">
-        <v>1794.268913393973</v>
+        <v>1736.469418905365</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.562402981254</v>
+        <v>2302.762908492647</v>
       </c>
       <c r="O26" t="n">
         <v>2790.971891461446</v>
@@ -6260,16 +6260,16 @@
         <v>3143.861459798726</v>
       </c>
       <c r="V26" t="n">
-        <v>2911.553643188639</v>
+        <v>2911.553643188638</v>
       </c>
       <c r="W26" t="n">
-        <v>2653.690170540212</v>
+        <v>2653.690170540211</v>
       </c>
       <c r="X26" t="n">
         <v>2376.331487555676</v>
       </c>
       <c r="Y26" t="n">
-        <v>2087.461089625486</v>
+        <v>2087.461089625485</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>154.1010374204616</v>
       </c>
       <c r="K27" t="n">
-        <v>154.1010374204616</v>
+        <v>424.9301587540203</v>
       </c>
       <c r="L27" t="n">
-        <v>575.5076898026174</v>
+        <v>846.336811136176</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.405891563315</v>
+        <v>1396.235012896873</v>
       </c>
       <c r="N27" t="n">
-        <v>1703.253165458718</v>
+        <v>1559.850296998439</v>
       </c>
       <c r="O27" t="n">
-        <v>2156.362297877684</v>
+        <v>2012.959429417406</v>
       </c>
       <c r="P27" t="n">
         <v>2363.94033680335</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>427.8819101788157</v>
+        <v>427.8819101788159</v>
       </c>
       <c r="C28" t="n">
-        <v>362.9373981344675</v>
+        <v>362.9373981344676</v>
       </c>
       <c r="D28" t="n">
-        <v>314.5369624562016</v>
+        <v>314.5369624562018</v>
       </c>
       <c r="E28" t="n">
-        <v>267.199405711492</v>
+        <v>267.1994057114921</v>
       </c>
       <c r="F28" t="n">
-        <v>219.3902082312405</v>
+        <v>219.3902082312407</v>
       </c>
       <c r="G28" t="n">
-        <v>155.3608975537423</v>
+        <v>155.3608975537425</v>
       </c>
       <c r="H28" t="n">
         <v>102.6066451955815</v>
@@ -6382,16 +6382,16 @@
         <v>69.66039796432631</v>
       </c>
       <c r="J28" t="n">
-        <v>128.5606223067506</v>
+        <v>128.5606223067508</v>
       </c>
       <c r="K28" t="n">
-        <v>289.6885668028092</v>
+        <v>289.6885668028093</v>
       </c>
       <c r="L28" t="n">
-        <v>524.7926911977439</v>
+        <v>524.792691197744</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0177843592649</v>
+        <v>779.017784359265</v>
       </c>
       <c r="N28" t="n">
         <v>1032.871755621873</v>
@@ -6427,7 +6427,7 @@
         <v>624.1295226829754</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.7658213692241</v>
+        <v>506.7658213692242</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1520.826706428217</v>
       </c>
       <c r="D29" t="n">
-        <v>1252.674199149411</v>
+        <v>1252.674199149412</v>
       </c>
       <c r="E29" t="n">
-        <v>962.5599367494897</v>
+        <v>962.5599367494904</v>
       </c>
       <c r="F29" t="n">
-        <v>653.0802035536317</v>
+        <v>653.0802035536321</v>
       </c>
       <c r="G29" t="n">
-        <v>342.1358538750757</v>
+        <v>342.1358538750761</v>
       </c>
       <c r="H29" t="n">
         <v>118.9856039730064</v>
@@ -6461,52 +6461,52 @@
         <v>69.66039796432631</v>
       </c>
       <c r="J29" t="n">
-        <v>284.8565228900246</v>
+        <v>284.8565228900247</v>
       </c>
       <c r="K29" t="n">
         <v>688.4478822646993</v>
       </c>
       <c r="L29" t="n">
-        <v>1214.42705379674</v>
+        <v>1156.627559308133</v>
       </c>
       <c r="M29" t="n">
-        <v>1794.268913393973</v>
+        <v>1736.469418905365</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.562402981254</v>
+        <v>2302.762908492647</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.971891461446</v>
+        <v>2790.971891461447</v>
       </c>
       <c r="P29" t="n">
         <v>3190.521091508235</v>
       </c>
       <c r="Q29" t="n">
-        <v>3439.210635163488</v>
+        <v>3439.210635163489</v>
       </c>
       <c r="R29" t="n">
-        <v>3483.019898216315</v>
+        <v>3483.019898216316</v>
       </c>
       <c r="S29" t="n">
-        <v>3411.586767809361</v>
+        <v>3411.586767809363</v>
       </c>
       <c r="T29" t="n">
-        <v>3294.036284240897</v>
+        <v>3294.036284240899</v>
       </c>
       <c r="U29" t="n">
         <v>3143.861459798726</v>
       </c>
       <c r="V29" t="n">
-        <v>2911.553643188638</v>
+        <v>2911.553643188639</v>
       </c>
       <c r="W29" t="n">
-        <v>2653.690170540211</v>
+        <v>2653.690170540212</v>
       </c>
       <c r="X29" t="n">
         <v>2376.331487555676</v>
       </c>
       <c r="Y29" t="n">
-        <v>2087.461089625485</v>
+        <v>2087.461089625486</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6552,7 @@
         <v>1396.235012896874</v>
       </c>
       <c r="N30" t="n">
-        <v>1974.082286792277</v>
+        <v>1559.850296998439</v>
       </c>
       <c r="O30" t="n">
         <v>2012.959429417406</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>427.8819101788158</v>
+        <v>427.8819101788157</v>
       </c>
       <c r="C31" t="n">
-        <v>362.9373981344676</v>
+        <v>362.9373981344675</v>
       </c>
       <c r="D31" t="n">
-        <v>314.5369624562017</v>
+        <v>314.5369624562016</v>
       </c>
       <c r="E31" t="n">
-        <v>267.199405711492</v>
+        <v>267.1994057114919</v>
       </c>
       <c r="F31" t="n">
         <v>219.3902082312405</v>
       </c>
       <c r="G31" t="n">
-        <v>155.3608975537423</v>
+        <v>155.3608975537422</v>
       </c>
       <c r="H31" t="n">
         <v>102.6066451955815</v>
@@ -6619,7 +6619,7 @@
         <v>69.66039796432631</v>
       </c>
       <c r="J31" t="n">
-        <v>128.5606223067508</v>
+        <v>128.5606223067507</v>
       </c>
       <c r="K31" t="n">
         <v>289.6885668028093</v>
@@ -6646,7 +6646,7 @@
         <v>1503.560082653956</v>
       </c>
       <c r="S31" t="n">
-        <v>1398.338009761835</v>
+        <v>1398.338009761834</v>
       </c>
       <c r="T31" t="n">
         <v>1270.766157858028</v>
@@ -6655,16 +6655,16 @@
         <v>1088.259320229864</v>
       </c>
       <c r="V31" t="n">
-        <v>932.1954732822576</v>
+        <v>932.1954732822578</v>
       </c>
       <c r="W31" t="n">
-        <v>750.7105292936282</v>
+        <v>750.7105292936284</v>
       </c>
       <c r="X31" t="n">
-        <v>624.1295226829753</v>
+        <v>624.1295226829756</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.7658213692242</v>
+        <v>506.7658213692241</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1558.048154565751</v>
+        <v>1558.048154565752</v>
       </c>
       <c r="C32" t="n">
-        <v>1313.640607020319</v>
+        <v>1313.64060702032</v>
       </c>
       <c r="D32" t="n">
         <v>1078.342853369304</v>
       </c>
       <c r="E32" t="n">
-        <v>821.0833445971716</v>
+        <v>821.083344597172</v>
       </c>
       <c r="F32" t="n">
-        <v>544.458365029103</v>
+        <v>544.4583650291033</v>
       </c>
       <c r="G32" t="n">
-        <v>266.3687689783364</v>
+        <v>266.3687689783365</v>
       </c>
       <c r="H32" t="n">
-        <v>76.07327270405692</v>
+        <v>76.07327270405696</v>
       </c>
       <c r="I32" t="n">
-        <v>59.60282032316627</v>
+        <v>59.60282032316628</v>
       </c>
       <c r="J32" t="n">
-        <v>306.9998892794611</v>
+        <v>172.2104497590232</v>
       </c>
       <c r="K32" t="n">
-        <v>711.0995346265415</v>
+        <v>473.2133136438564</v>
       </c>
       <c r="L32" t="n">
-        <v>1134.490210668741</v>
+        <v>896.6039896860564</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.743574776132</v>
+        <v>1373.857353793447</v>
       </c>
       <c r="N32" t="n">
-        <v>2075.448568873573</v>
+        <v>1972.351787411325</v>
       </c>
       <c r="O32" t="n">
-        <v>2461.069056352531</v>
+        <v>2357.972274890284</v>
       </c>
       <c r="P32" t="n">
-        <v>2758.029760909478</v>
+        <v>2654.932979447231</v>
       </c>
       <c r="Q32" t="n">
-        <v>2904.13080907489</v>
+        <v>2904.130809074891</v>
       </c>
       <c r="R32" t="n">
         <v>2980.141016158314</v>
@@ -6731,19 +6731,19 @@
         <v>2856.866909438475</v>
       </c>
       <c r="U32" t="n">
-        <v>2739.546838624092</v>
+        <v>2739.546838624093</v>
       </c>
       <c r="V32" t="n">
-        <v>2540.093775641794</v>
+        <v>2540.093775641795</v>
       </c>
       <c r="W32" t="n">
-        <v>2315.085056621156</v>
+        <v>2315.085056621157</v>
       </c>
       <c r="X32" t="n">
-        <v>2070.58112726441</v>
+        <v>2070.581127264411</v>
       </c>
       <c r="Y32" t="n">
-        <v>1814.565482962009</v>
+        <v>1814.56548296201</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>927.1387139912991</v>
+        <v>927.1387139912994</v>
       </c>
       <c r="C33" t="n">
-        <v>765.4350412322539</v>
+        <v>765.4350412322541</v>
       </c>
       <c r="D33" t="n">
-        <v>626.5964042224659</v>
+        <v>626.5964042224662</v>
       </c>
       <c r="E33" t="n">
-        <v>479.5683942793372</v>
+        <v>479.5683942793373</v>
       </c>
       <c r="F33" t="n">
         <v>344.8745962292116</v>
@@ -6774,28 +6774,28 @@
         <v>118.9920701616849</v>
       </c>
       <c r="I33" t="n">
-        <v>59.60282032316627</v>
+        <v>59.60282032316628</v>
       </c>
       <c r="J33" t="n">
-        <v>59.60282032316627</v>
+        <v>59.60282032316628</v>
       </c>
       <c r="K33" t="n">
-        <v>191.0905410541013</v>
+        <v>330.431941656725</v>
       </c>
       <c r="L33" t="n">
-        <v>612.4971934362571</v>
+        <v>751.8385940388807</v>
       </c>
       <c r="M33" t="n">
-        <v>1162.395395196954</v>
+        <v>1301.736795799578</v>
       </c>
       <c r="N33" t="n">
-        <v>1740.242669092358</v>
+        <v>1879.584069694981</v>
       </c>
       <c r="O33" t="n">
-        <v>2193.351801511324</v>
+        <v>2332.693202113947</v>
       </c>
       <c r="P33" t="n">
-        <v>2544.332708897269</v>
+        <v>2353.88275916219</v>
       </c>
       <c r="Q33" t="n">
         <v>2544.332708897269</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>187.8410571431293</v>
+        <v>187.8410571431295</v>
       </c>
       <c r="C34" t="n">
-        <v>155.7512987265705</v>
+        <v>155.7512987265707</v>
       </c>
       <c r="D34" t="n">
-        <v>140.2056166760942</v>
+        <v>140.2056166760943</v>
       </c>
       <c r="E34" t="n">
-        <v>125.722813559174</v>
+        <v>125.7228135591741</v>
       </c>
       <c r="F34" t="n">
-        <v>110.768369706712</v>
+        <v>110.7683697067121</v>
       </c>
       <c r="G34" t="n">
-        <v>79.59381265700324</v>
+        <v>79.59381265700331</v>
       </c>
       <c r="H34" t="n">
-        <v>59.69431392663195</v>
+        <v>59.69431392663198</v>
       </c>
       <c r="I34" t="n">
-        <v>59.60282032316627</v>
+        <v>59.60282032316628</v>
       </c>
       <c r="J34" t="n">
-        <v>59.60282032316627</v>
+        <v>59.60282032316628</v>
       </c>
       <c r="K34" t="n">
-        <v>252.9317088498213</v>
+        <v>214.8977448799463</v>
       </c>
       <c r="L34" t="n">
-        <v>385.4473377549147</v>
+        <v>482.2028133054775</v>
       </c>
       <c r="M34" t="n">
-        <v>537.0839354265943</v>
+        <v>633.8394109771572</v>
       </c>
       <c r="N34" t="n">
-        <v>688.3494111993614</v>
+        <v>785.1048867499243</v>
       </c>
       <c r="O34" t="n">
-        <v>817.1490077807277</v>
+        <v>913.9044833312906</v>
       </c>
       <c r="P34" t="n">
-        <v>906.0751375044819</v>
+        <v>1002.830613055045</v>
       </c>
       <c r="Q34" t="n">
-        <v>1002.830613055044</v>
+        <v>1002.830613055045</v>
       </c>
       <c r="R34" t="n">
         <v>1000.681200595954</v>
       </c>
       <c r="S34" t="n">
-        <v>928.313881331622</v>
+        <v>928.3138813316224</v>
       </c>
       <c r="T34" t="n">
-        <v>833.5967830556049</v>
+        <v>833.5967830556052</v>
       </c>
       <c r="U34" t="n">
-        <v>683.94469905523</v>
+        <v>683.9446990552303</v>
       </c>
       <c r="V34" t="n">
-        <v>560.7356057354135</v>
+        <v>560.7356057354139</v>
       </c>
       <c r="W34" t="n">
-        <v>412.1054153745736</v>
+        <v>412.1054153745738</v>
       </c>
       <c r="X34" t="n">
-        <v>318.3791623917102</v>
+        <v>318.3791623917105</v>
       </c>
       <c r="Y34" t="n">
-        <v>233.8702147057482</v>
+        <v>233.8702147057484</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1407.703377338827</v>
+        <v>1407.703377338826</v>
       </c>
       <c r="C35" t="n">
         <v>1184.540542342339</v>
       </c>
       <c r="D35" t="n">
-        <v>970.4875012402679</v>
+        <v>970.4875012402672</v>
       </c>
       <c r="E35" t="n">
-        <v>734.4727050170798</v>
+        <v>734.4727050170791</v>
       </c>
       <c r="F35" t="n">
-        <v>479.0924379979551</v>
+        <v>479.0924379979544</v>
       </c>
       <c r="G35" t="n">
         <v>222.2475544961321</v>
       </c>
       <c r="H35" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="I35" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="J35" t="n">
-        <v>165.8044002066538</v>
+        <v>165.8044002066537</v>
       </c>
       <c r="K35" t="n">
         <v>466.8072640914869</v>
       </c>
       <c r="L35" t="n">
-        <v>890.1979401336869</v>
+        <v>890.197940133687</v>
       </c>
       <c r="M35" t="n">
         <v>1367.451304241078</v>
@@ -6950,7 +6950,7 @@
         <v>1831.156298338518</v>
       </c>
       <c r="O35" t="n">
-        <v>2216.776785817477</v>
+        <v>2216.776785817476</v>
       </c>
       <c r="P35" t="n">
         <v>2513.737490374423</v>
@@ -6965,22 +6965,22 @@
         <v>2642.504874309616</v>
       </c>
       <c r="T35" t="n">
-        <v>2579.053856917886</v>
+        <v>2579.053856917885</v>
       </c>
       <c r="U35" t="n">
-        <v>2482.978498652447</v>
+        <v>2482.978498652446</v>
       </c>
       <c r="V35" t="n">
-        <v>2304.770148219094</v>
+        <v>2304.770148219093</v>
       </c>
       <c r="W35" t="n">
-        <v>2101.0061417474</v>
+        <v>2101.006141747399</v>
       </c>
       <c r="X35" t="n">
-        <v>1877.746924939598</v>
+        <v>1877.746924939597</v>
       </c>
       <c r="Y35" t="n">
-        <v>1642.975993186141</v>
+        <v>1642.97599318614</v>
       </c>
     </row>
     <row r="36">
@@ -7005,34 +7005,34 @@
         <v>338.468546676842</v>
       </c>
       <c r="G36" t="n">
-        <v>210.0012456921628</v>
+        <v>210.0012456921627</v>
       </c>
       <c r="H36" t="n">
         <v>112.5860206093153</v>
       </c>
       <c r="I36" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="J36" t="n">
         <v>137.637410226932</v>
       </c>
       <c r="K36" t="n">
-        <v>137.637410226932</v>
+        <v>184.6844915017318</v>
       </c>
       <c r="L36" t="n">
-        <v>415.6411941488089</v>
+        <v>606.0911438838876</v>
       </c>
       <c r="M36" t="n">
-        <v>965.5393959095063</v>
+        <v>1155.989345644585</v>
       </c>
       <c r="N36" t="n">
-        <v>1543.386669804909</v>
+        <v>1733.836619539988</v>
       </c>
       <c r="O36" t="n">
-        <v>1996.495802223876</v>
+        <v>2186.945751958955</v>
       </c>
       <c r="P36" t="n">
-        <v>2347.476709609821</v>
+        <v>2537.926659344899</v>
       </c>
       <c r="Q36" t="n">
         <v>2537.926659344899</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73.97166113917619</v>
+        <v>121.9972053704019</v>
       </c>
       <c r="C37" t="n">
-        <v>63.12661527156145</v>
+        <v>111.1521595027872</v>
       </c>
       <c r="D37" t="n">
-        <v>63.12661527156145</v>
+        <v>111.1521595027872</v>
       </c>
       <c r="E37" t="n">
-        <v>63.12661527156145</v>
+        <v>111.1521595027872</v>
       </c>
       <c r="F37" t="n">
-        <v>63.12661527156145</v>
+        <v>111.1521595027872</v>
       </c>
       <c r="G37" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="H37" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="I37" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="J37" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="K37" t="n">
         <v>111.7362197770138</v>
@@ -7123,22 +7123,22 @@
         <v>713.7570417162863</v>
       </c>
       <c r="T37" t="n">
-        <v>592.2591117579875</v>
+        <v>640.2846559892132</v>
       </c>
       <c r="U37" t="n">
-        <v>463.8517403065567</v>
+        <v>511.8772845377824</v>
       </c>
       <c r="V37" t="n">
-        <v>361.8873595356843</v>
+        <v>409.91290376691</v>
       </c>
       <c r="W37" t="n">
-        <v>234.5018817237883</v>
+        <v>282.5274259550141</v>
       </c>
       <c r="X37" t="n">
-        <v>162.020341289869</v>
+        <v>210.0458855210948</v>
       </c>
       <c r="Y37" t="n">
-        <v>98.75610615285106</v>
+        <v>146.7816503840768</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1407.703377338827</v>
+        <v>1407.703377338826</v>
       </c>
       <c r="C38" t="n">
         <v>1184.540542342339</v>
       </c>
       <c r="D38" t="n">
-        <v>970.4875012402679</v>
+        <v>970.487501240267</v>
       </c>
       <c r="E38" t="n">
-        <v>734.4727050170798</v>
+        <v>734.4727050170789</v>
       </c>
       <c r="F38" t="n">
-        <v>479.0924379979551</v>
+        <v>479.0924379979542</v>
       </c>
       <c r="G38" t="n">
         <v>222.2475544961321</v>
       </c>
       <c r="H38" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="I38" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="J38" t="n">
-        <v>165.8044002066536</v>
+        <v>165.804400206654</v>
       </c>
       <c r="K38" t="n">
-        <v>466.8072640914869</v>
+        <v>466.807264091487</v>
       </c>
       <c r="L38" t="n">
-        <v>890.1979401336871</v>
+        <v>890.197940133687</v>
       </c>
       <c r="M38" t="n">
         <v>1367.451304241078</v>
@@ -7199,10 +7199,10 @@
         <v>2659.838538539836</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.504874309617</v>
+        <v>2642.504874309616</v>
       </c>
       <c r="T38" t="n">
-        <v>2579.053856917886</v>
+        <v>2579.053856917885</v>
       </c>
       <c r="U38" t="n">
         <v>2482.978498652447</v>
@@ -7242,34 +7242,34 @@
         <v>338.468546676842</v>
       </c>
       <c r="G39" t="n">
-        <v>210.0012456921628</v>
+        <v>210.0012456921627</v>
       </c>
       <c r="H39" t="n">
         <v>112.5860206093153</v>
       </c>
       <c r="I39" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="J39" t="n">
-        <v>137.637410226932</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="K39" t="n">
-        <v>408.4665315604907</v>
+        <v>184.6844915017318</v>
       </c>
       <c r="L39" t="n">
-        <v>829.8731839426465</v>
+        <v>606.0911438838876</v>
       </c>
       <c r="M39" t="n">
-        <v>1379.771385703344</v>
+        <v>1155.989345644585</v>
       </c>
       <c r="N39" t="n">
-        <v>1543.386669804909</v>
+        <v>1733.836619539988</v>
       </c>
       <c r="O39" t="n">
-        <v>1996.495802223876</v>
+        <v>2186.945751958955</v>
       </c>
       <c r="P39" t="n">
-        <v>2347.476709609821</v>
+        <v>2537.926659344899</v>
       </c>
       <c r="Q39" t="n">
         <v>2537.926659344899</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.97166113917619</v>
+        <v>121.9972053704019</v>
       </c>
       <c r="C40" t="n">
-        <v>63.12661527156145</v>
+        <v>63.12661527156144</v>
       </c>
       <c r="D40" t="n">
-        <v>63.12661527156145</v>
+        <v>63.12661527156144</v>
       </c>
       <c r="E40" t="n">
-        <v>63.12661527156145</v>
+        <v>63.12661527156144</v>
       </c>
       <c r="F40" t="n">
-        <v>63.12661527156145</v>
+        <v>63.12661527156144</v>
       </c>
       <c r="G40" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="H40" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="I40" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="J40" t="n">
-        <v>53.19677077079672</v>
+        <v>53.19677077079671</v>
       </c>
       <c r="K40" t="n">
         <v>111.7362197770138</v>
@@ -7366,16 +7366,16 @@
         <v>511.8772845377824</v>
       </c>
       <c r="V40" t="n">
-        <v>361.8873595356843</v>
+        <v>409.91290376691</v>
       </c>
       <c r="W40" t="n">
-        <v>234.5018817237883</v>
+        <v>282.5274259550141</v>
       </c>
       <c r="X40" t="n">
-        <v>162.020341289869</v>
+        <v>210.0458855210948</v>
       </c>
       <c r="Y40" t="n">
-        <v>98.75610615285106</v>
+        <v>146.7816503840768</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1407.703377338828</v>
+        <v>1407.703377338827</v>
       </c>
       <c r="C41" t="n">
-        <v>1184.54054234234</v>
+        <v>1184.540542342339</v>
       </c>
       <c r="D41" t="n">
-        <v>970.4875012402688</v>
+        <v>970.4875012402679</v>
       </c>
       <c r="E41" t="n">
-        <v>734.4727050170807</v>
+        <v>734.4727050170798</v>
       </c>
       <c r="F41" t="n">
-        <v>479.092437997956</v>
+        <v>479.0924379979552</v>
       </c>
       <c r="G41" t="n">
         <v>222.247554496132</v>
@@ -7442,19 +7442,19 @@
         <v>2579.053856917886</v>
       </c>
       <c r="U41" t="n">
-        <v>2482.978498652448</v>
+        <v>2482.978498652447</v>
       </c>
       <c r="V41" t="n">
-        <v>2304.770148219094</v>
+        <v>2304.770148219093</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.0061417474</v>
+        <v>2101.006141747399</v>
       </c>
       <c r="X41" t="n">
-        <v>1877.746924939599</v>
+        <v>1877.746924939598</v>
       </c>
       <c r="Y41" t="n">
-        <v>1642.975993186142</v>
+        <v>1642.975993186141</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>53.19677077079672</v>
       </c>
       <c r="K42" t="n">
-        <v>324.0258921043554</v>
+        <v>184.6844915017318</v>
       </c>
       <c r="L42" t="n">
-        <v>415.6411941488089</v>
+        <v>606.0911438838876</v>
       </c>
       <c r="M42" t="n">
-        <v>965.5393959095063</v>
+        <v>1155.989345644585</v>
       </c>
       <c r="N42" t="n">
-        <v>1543.386669804909</v>
+        <v>1733.836619539988</v>
       </c>
       <c r="O42" t="n">
-        <v>1996.495802223876</v>
+        <v>2186.945751958955</v>
       </c>
       <c r="P42" t="n">
-        <v>2347.476709609821</v>
+        <v>2537.926659344899</v>
       </c>
       <c r="Q42" t="n">
         <v>2537.926659344899</v>
@@ -7594,7 +7594,7 @@
         <v>764.8796484316744</v>
       </c>
       <c r="S43" t="n">
-        <v>665.7314974850595</v>
+        <v>713.7570417162864</v>
       </c>
       <c r="T43" t="n">
         <v>592.2591117579866</v>
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1407.703377338826</v>
+        <v>1407.703377338827</v>
       </c>
       <c r="C44" t="n">
-        <v>1184.540542342338</v>
+        <v>1184.540542342339</v>
       </c>
       <c r="D44" t="n">
-        <v>970.487501240267</v>
+        <v>970.4875012402676</v>
       </c>
       <c r="E44" t="n">
-        <v>734.4727050170789</v>
+        <v>734.4727050170798</v>
       </c>
       <c r="F44" t="n">
-        <v>479.0924379979543</v>
+        <v>479.0924379979551</v>
       </c>
       <c r="G44" t="n">
-        <v>222.247554496132</v>
+        <v>222.2475544961322</v>
       </c>
       <c r="H44" t="n">
-        <v>53.19677077079671</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="I44" t="n">
-        <v>53.19677077079671</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="J44" t="n">
-        <v>165.804400206654</v>
+        <v>165.8044002066545</v>
       </c>
       <c r="K44" t="n">
-        <v>466.807264091487</v>
+        <v>466.8072640914877</v>
       </c>
       <c r="L44" t="n">
-        <v>890.197940133687</v>
+        <v>890.1979401336878</v>
       </c>
       <c r="M44" t="n">
-        <v>1367.451304241078</v>
+        <v>1367.451304241079</v>
       </c>
       <c r="N44" t="n">
-        <v>1831.156298338518</v>
+        <v>1831.156298338519</v>
       </c>
       <c r="O44" t="n">
-        <v>2216.776785817477</v>
+        <v>2216.776785817478</v>
       </c>
       <c r="P44" t="n">
-        <v>2513.737490374423</v>
+        <v>2513.737490374424</v>
       </c>
       <c r="Q44" t="n">
         <v>2659.838538539836</v>
@@ -7673,25 +7673,25 @@
         <v>2659.838538539836</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.504874309615</v>
+        <v>2642.504874309617</v>
       </c>
       <c r="T44" t="n">
-        <v>2579.053856917884</v>
+        <v>2579.053856917886</v>
       </c>
       <c r="U44" t="n">
-        <v>2482.978498652446</v>
+        <v>2482.978498652448</v>
       </c>
       <c r="V44" t="n">
-        <v>2304.770148219092</v>
+        <v>2304.770148219094</v>
       </c>
       <c r="W44" t="n">
-        <v>2101.006141747398</v>
+        <v>2101.0061417474</v>
       </c>
       <c r="X44" t="n">
-        <v>1877.746924939597</v>
+        <v>1877.746924939598</v>
       </c>
       <c r="Y44" t="n">
-        <v>1642.97599318614</v>
+        <v>1642.975993186141</v>
       </c>
     </row>
     <row r="45">
@@ -7716,34 +7716,34 @@
         <v>338.468546676842</v>
       </c>
       <c r="G45" t="n">
-        <v>210.0012456921627</v>
+        <v>210.0012456921628</v>
       </c>
       <c r="H45" t="n">
         <v>112.5860206093153</v>
       </c>
       <c r="I45" t="n">
-        <v>53.19677077079671</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="J45" t="n">
-        <v>137.637410226932</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="K45" t="n">
-        <v>137.637410226932</v>
+        <v>184.6844915017318</v>
       </c>
       <c r="L45" t="n">
-        <v>559.0440626090879</v>
+        <v>606.0911438838876</v>
       </c>
       <c r="M45" t="n">
-        <v>1108.942264369785</v>
+        <v>1155.989345644585</v>
       </c>
       <c r="N45" t="n">
-        <v>1686.789538265188</v>
+        <v>1733.836619539988</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.898670684155</v>
+        <v>2186.945751958955</v>
       </c>
       <c r="P45" t="n">
-        <v>2347.476709609821</v>
+        <v>2537.926659344899</v>
       </c>
       <c r="Q45" t="n">
         <v>2537.926659344899</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>73.97166113917596</v>
+        <v>121.9972053704017</v>
       </c>
       <c r="C46" t="n">
-        <v>63.12661527156133</v>
+        <v>111.1521595027869</v>
       </c>
       <c r="D46" t="n">
-        <v>63.12661527156133</v>
+        <v>111.1521595027869</v>
       </c>
       <c r="E46" t="n">
-        <v>63.12661527156133</v>
+        <v>111.1521595027869</v>
       </c>
       <c r="F46" t="n">
-        <v>63.12661527156133</v>
+        <v>111.1521595027869</v>
       </c>
       <c r="G46" t="n">
-        <v>53.19677077079671</v>
+        <v>101.2223150020222</v>
       </c>
       <c r="H46" t="n">
-        <v>53.19677077079671</v>
+        <v>101.2223150020222</v>
       </c>
       <c r="I46" t="n">
-        <v>53.19677077079671</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="J46" t="n">
-        <v>53.19677077079671</v>
+        <v>53.19677077079673</v>
       </c>
       <c r="K46" t="n">
         <v>111.7362197770138</v>
@@ -7831,25 +7831,25 @@
         <v>764.8796484316744</v>
       </c>
       <c r="S46" t="n">
-        <v>713.7570417162864</v>
+        <v>713.7570417162863</v>
       </c>
       <c r="T46" t="n">
-        <v>592.2591117579866</v>
+        <v>640.2846559892131</v>
       </c>
       <c r="U46" t="n">
-        <v>463.8517403065559</v>
+        <v>511.8772845377823</v>
       </c>
       <c r="V46" t="n">
-        <v>361.8873595356836</v>
+        <v>409.9129037669098</v>
       </c>
       <c r="W46" t="n">
-        <v>234.5018817237877</v>
+        <v>282.5274259550139</v>
       </c>
       <c r="X46" t="n">
-        <v>162.0203412898686</v>
+        <v>210.0458855210946</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.75610615285072</v>
+        <v>146.7816503840766</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
-        <v>196.0033614891845</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>196.5600440970748</v>
       </c>
       <c r="P2" t="n">
-        <v>197.8864878340879</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>190.6330518059216</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8055,7 +8055,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>113.0652504495981</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
         <v>111.9961691666667</v>
@@ -8064,19 +8064,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>125.4935813445713</v>
       </c>
       <c r="N3" t="n">
-        <v>106.7151410677083</v>
+        <v>116.7248198506397</v>
       </c>
       <c r="O3" t="n">
-        <v>125.4646959280654</v>
+        <v>125.8691273940425</v>
       </c>
       <c r="P3" t="n">
-        <v>118.8638848070747</v>
+        <v>118.4594533410977</v>
       </c>
       <c r="Q3" t="n">
-        <v>123.7448702278239</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8137,19 +8137,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K4" t="n">
-        <v>114.8329510464913</v>
+        <v>114.4285195805143</v>
       </c>
       <c r="L4" t="n">
-        <v>109.5937994785061</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M4" t="n">
-        <v>112.8771994574291</v>
+        <v>122.8868782403605</v>
       </c>
       <c r="N4" t="n">
-        <v>113.3497521949563</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O4" t="n">
-        <v>122.5056162750536</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P4" t="n">
         <v>121.9136820728638</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K5" t="n">
-        <v>188.4282512910011</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L5" t="n">
-        <v>191.5602121631146</v>
+        <v>201.569890946046</v>
       </c>
       <c r="M5" t="n">
-        <v>197.1659932800904</v>
+        <v>196.7615618141134</v>
       </c>
       <c r="N5" t="n">
-        <v>196.4077929551615</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O5" t="n">
-        <v>196.9644755630518</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
         <v>187.8768090511565</v>
@@ -8292,7 +8292,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>113.0652504495981</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>111.9961691666667</v>
@@ -8307,7 +8307,7 @@
         <v>116.7248198506397</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>125.8691273940425</v>
       </c>
       <c r="P6" t="n">
         <v>118.8638848070747</v>
@@ -8377,19 +8377,19 @@
         <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>119.1990467954604</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
         <v>122.8868782403605</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7541836609333</v>
+        <v>113.3497521949563</v>
       </c>
       <c r="O7" t="n">
         <v>122.5056162750536</v>
       </c>
       <c r="P7" t="n">
-        <v>111.9040032899324</v>
+        <v>121.9136820728638</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8456,22 +8456,22 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M8" t="n">
-        <v>222.0155828264754</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N8" t="n">
         <v>322.1275134696619</v>
       </c>
       <c r="O8" t="n">
-        <v>322.6841960775522</v>
+        <v>317.2001799443227</v>
       </c>
       <c r="P8" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,22 +8529,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M9" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>176.0977499560457</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>246.1048317753133</v>
       </c>
       <c r="P9" t="n">
         <v>244.5836053215751</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>78.624770734314</v>
+        <v>78.62477073431404</v>
       </c>
       <c r="K12" t="n">
-        <v>203.0559186187521</v>
+        <v>70.24003909255556</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>80.72678745551443</v>
+        <v>213.542666981712</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>78.624770734314</v>
+        <v>78.62477073431405</v>
       </c>
       <c r="K15" t="n">
-        <v>70.24003909255549</v>
+        <v>70.24003909255558</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>354.4437921570258</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>213.542666981712</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9252,7 +9252,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>204.7289353397126</v>
+        <v>204.7289353397136</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236938</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9477,10 +9477,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>78.62477073431391</v>
+        <v>78.62477073431405</v>
       </c>
       <c r="K21" t="n">
-        <v>203.055918618751</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9495,10 +9495,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>273.252709734319</v>
       </c>
       <c r="Q21" t="n">
-        <v>80.72678745551431</v>
+        <v>80.72678745551451</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9717,13 +9717,13 @@
         <v>78.62477073431401</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>70.24003909255552</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>272.2940067763108</v>
+        <v>545.8587758001074</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9954,7 +9954,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>70.24003909255555</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,13 +9963,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>204.7289353397134</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>269.1502169488085</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
         <v>273.1004740566038</v>
@@ -10200,10 +10200,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>204.7289353397129</v>
       </c>
       <c r="O30" t="n">
-        <v>93.60486375284179</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10428,7 +10428,7 @@
         <v>78.62477073431401</v>
       </c>
       <c r="K33" t="n">
-        <v>203.0559186187525</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10443,10 +10443,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>80.87902313322954</v>
       </c>
       <c r="Q33" t="n">
-        <v>80.72678745551445</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10665,10 +10665,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>70.24003909255552</v>
+        <v>117.7623434105351</v>
       </c>
       <c r="L36" t="n">
-        <v>337.2410666113869</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>80.72678745551445</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10826,7 +10826,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155858</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>78.62477073431401</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>203.0559186187526</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>204.7289353397129</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>80.72678745551445</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11139,10 +11139,10 @@
         <v>78.62477073431401</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>203.0559186187526</v>
       </c>
       <c r="L42" t="n">
-        <v>148.9698727958077</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>80.72678745551445</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>78.62477073431401</v>
       </c>
       <c r="K45" t="n">
-        <v>70.24003909255552</v>
+        <v>203.0559186187526</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11391,10 +11391,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>269.1502169488085</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>80.72678745551445</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.5588571917059</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>295.5701741493876</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>286.5514781939156</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.4654318517982</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>225.1774854415905</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>137.4554747206782</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>169.7535721856486</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>251.0652344318849</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>229.1182817865892</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>68.41160149334762</v>
+        <v>68.41160149334749</v>
       </c>
       <c r="G13" t="n">
-        <v>84.46951355862195</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>9.312963621235802</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>53.69728074684119</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.73462041390961</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>4.132711505434415</v>
       </c>
       <c r="T13" t="n">
-        <v>147.3766293726673</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>175.5837044660285</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>200.7505905366417</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>137.2705602885126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.5701741493874</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>308.2936157638212</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>327.4654318517983</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>58.28014074344625</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.79929509078197</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>169.7535721856487</v>
+        <v>169.3611013657564</v>
       </c>
       <c r="V14" t="n">
-        <v>251.065234431885</v>
+        <v>251.0652344318848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>307.0621899387871</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>85.37556291180347</v>
+        <v>85.37556291180321</v>
       </c>
       <c r="D16" t="n">
-        <v>68.99692730938186</v>
+        <v>68.9969273093816</v>
       </c>
       <c r="E16" t="n">
-        <v>67.94467716516131</v>
+        <v>67.94467716516105</v>
       </c>
       <c r="F16" t="n">
-        <v>68.41160149334762</v>
+        <v>68.41160149334736</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.4695135586217</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>73.30720582247763</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>53.69728074684106</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.73462041390961</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>9.716806922246604</v>
+        <v>0.3731197406563638</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>146.395692532445</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-1.216946543536323e-12</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1071893.513973753</v>
+        <v>1071893.513973752</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>383735.0861847735</v>
+        <v>383735.0861847736</v>
       </c>
       <c r="C2" t="n">
         <v>383735.0861847737</v>
       </c>
       <c r="D2" t="n">
-        <v>383812.0302470909</v>
+        <v>383812.0302470907</v>
       </c>
       <c r="E2" t="n">
-        <v>333409.7713820433</v>
+        <v>333409.771382043</v>
       </c>
       <c r="F2" t="n">
-        <v>333409.7713820432</v>
+        <v>333409.7713820431</v>
       </c>
       <c r="G2" t="n">
         <v>383812.030247091</v>
       </c>
       <c r="H2" t="n">
+        <v>383812.0302470909</v>
+      </c>
+      <c r="I2" t="n">
         <v>383812.0302470911</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>383812.0302470909</v>
       </c>
-      <c r="J2" t="n">
-        <v>383812.030247091</v>
-      </c>
       <c r="K2" t="n">
-        <v>383812.030247091</v>
+        <v>383812.0302470909</v>
       </c>
       <c r="L2" t="n">
-        <v>383812.0302470911</v>
+        <v>383812.0302470914</v>
       </c>
       <c r="M2" t="n">
         <v>383812.0302470911</v>
       </c>
       <c r="N2" t="n">
+        <v>383812.0302470911</v>
+      </c>
+      <c r="O2" t="n">
+        <v>383812.0302470909</v>
+      </c>
+      <c r="P2" t="n">
         <v>383812.030247091</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383812.030247091</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383812.0302470909</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>39052.31678341926</v>
       </c>
       <c r="E3" t="n">
-        <v>320637.2306710274</v>
+        <v>320637.2306710273</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.029028291148799e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>59711.17400229192</v>
+        <v>59711.17400229167</v>
       </c>
       <c r="H3" t="n">
-        <v>3.264405279423954e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.11622023016389e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>79652.70864621295</v>
+        <v>79652.70864621307</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.029028291148799e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>85732.1388755012</v>
+        <v>85732.13887550091</v>
       </c>
       <c r="M3" t="n">
-        <v>128756.9392477081</v>
+        <v>128756.939247708</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23188.62033293354</v>
+        <v>23188.62033293371</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>355758.3782119924</v>
       </c>
       <c r="E4" t="n">
-        <v>198973.2420400346</v>
+        <v>198973.2420400348</v>
       </c>
       <c r="F4" t="n">
-        <v>198973.2420400346</v>
+        <v>198973.2420400349</v>
       </c>
       <c r="G4" t="n">
-        <v>256325.1475579108</v>
+        <v>256325.1475579107</v>
       </c>
       <c r="H4" t="n">
         <v>256325.1475579107</v>
       </c>
       <c r="I4" t="n">
-        <v>256325.1475579108</v>
+        <v>256325.1475579107</v>
       </c>
       <c r="J4" t="n">
         <v>257395.2154052851</v>
@@ -26451,13 +26451,13 @@
         <v>256325.1475579107</v>
       </c>
       <c r="N4" t="n">
-        <v>256325.1475579108</v>
+        <v>256325.1475579107</v>
       </c>
       <c r="O4" t="n">
         <v>256325.1475579108</v>
       </c>
       <c r="P4" t="n">
-        <v>256325.1475579108</v>
+        <v>256325.1475579107</v>
       </c>
     </row>
     <row r="5">
@@ -26482,10 +26482,10 @@
         <v>49989.76003057291</v>
       </c>
       <c r="G5" t="n">
-        <v>56264.58338957126</v>
+        <v>56264.58338957123</v>
       </c>
       <c r="H5" t="n">
-        <v>56264.58338957129</v>
+        <v>56264.58338957121</v>
       </c>
       <c r="I5" t="n">
         <v>56264.58338957126</v>
@@ -26494,16 +26494,16 @@
         <v>64274.33291486204</v>
       </c>
       <c r="K5" t="n">
-        <v>64274.33291486204</v>
+        <v>64274.33291486205</v>
       </c>
       <c r="L5" t="n">
-        <v>59365.0195274877</v>
+        <v>59365.01952748771</v>
       </c>
       <c r="M5" t="n">
-        <v>56264.58338957126</v>
+        <v>56264.58338957125</v>
       </c>
       <c r="N5" t="n">
-        <v>56264.58338957126</v>
+        <v>56264.58338957125</v>
       </c>
       <c r="O5" t="n">
         <v>56264.58338957126</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31904.53109533423</v>
+        <v>-31904.91581564576</v>
       </c>
       <c r="C6" t="n">
-        <v>-28550.05751256175</v>
+        <v>-28550.4422328734</v>
       </c>
       <c r="D6" t="n">
-        <v>-52878.61222560473</v>
+        <v>-52878.61222560491</v>
       </c>
       <c r="E6" t="n">
-        <v>-236190.4613595917</v>
+        <v>-236442.4726539172</v>
       </c>
       <c r="F6" t="n">
-        <v>84446.76931143567</v>
+        <v>84194.75801710995</v>
       </c>
       <c r="G6" t="n">
-        <v>11511.12529731708</v>
+        <v>11511.12529731733</v>
       </c>
       <c r="H6" t="n">
-        <v>71222.29929960874</v>
+        <v>71222.29929960909</v>
       </c>
       <c r="I6" t="n">
-        <v>71222.29929960941</v>
+        <v>71222.29929960895</v>
       </c>
       <c r="J6" t="n">
-        <v>-17510.22671926902</v>
+        <v>-17510.22671926925</v>
       </c>
       <c r="K6" t="n">
-        <v>62142.48192694398</v>
+        <v>62142.4819269437</v>
       </c>
       <c r="L6" t="n">
-        <v>-18006.97569972086</v>
+        <v>-18006.97569972037</v>
       </c>
       <c r="M6" t="n">
-        <v>-57534.63994809895</v>
+        <v>-57534.6399480988</v>
       </c>
       <c r="N6" t="n">
-        <v>71222.299299609</v>
+        <v>71222.29929960915</v>
       </c>
       <c r="O6" t="n">
-        <v>48033.67896667538</v>
+        <v>48033.67896667515</v>
       </c>
       <c r="P6" t="n">
-        <v>71222.29929960886</v>
+        <v>71222.29929960909</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="F2" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="G2" t="n">
         <v>157.1832144339979</v>
@@ -26704,7 +26704,7 @@
         <v>157.1832144339979</v>
       </c>
       <c r="I2" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="J2" t="n">
         <v>103.6247429190317</v>
@@ -26725,7 +26725,7 @@
         <v>157.183214433998</v>
       </c>
       <c r="P2" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>120.2202729134852</v>
+        <v>120.220272913485</v>
       </c>
       <c r="F3" t="n">
-        <v>120.2202729134852</v>
+        <v>120.220272913485</v>
       </c>
       <c r="G3" t="n">
-        <v>120.2202729134852</v>
+        <v>120.220272913485</v>
       </c>
       <c r="H3" t="n">
-        <v>120.2202729134856</v>
+        <v>120.220272913485</v>
       </c>
       <c r="I3" t="n">
         <v>120.2202729134851</v>
@@ -26796,40 +26796,40 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
+        <v>664.9596346349589</v>
+      </c>
+      <c r="F4" t="n">
+        <v>664.9596346349588</v>
+      </c>
+      <c r="G4" t="n">
+        <v>664.9596346349588</v>
+      </c>
+      <c r="H4" t="n">
+        <v>664.9596346349583</v>
+      </c>
+      <c r="I4" t="n">
         <v>664.9596346349591</v>
-      </c>
-      <c r="F4" t="n">
-        <v>664.9596346349591</v>
-      </c>
-      <c r="G4" t="n">
-        <v>664.9596346349591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>664.9596346349595</v>
-      </c>
-      <c r="I4" t="n">
-        <v>664.9596346349589</v>
       </c>
       <c r="J4" t="n">
         <v>870.7549745540788</v>
       </c>
       <c r="K4" t="n">
-        <v>870.7549745540788</v>
+        <v>870.7549745540789</v>
       </c>
       <c r="L4" t="n">
-        <v>745.0352540395784</v>
+        <v>745.0352540395785</v>
       </c>
       <c r="M4" t="n">
-        <v>664.959634634959</v>
+        <v>664.9596346349589</v>
       </c>
       <c r="N4" t="n">
-        <v>664.959634634959</v>
+        <v>664.9596346349589</v>
       </c>
       <c r="O4" t="n">
         <v>664.959634634959</v>
       </c>
       <c r="P4" t="n">
-        <v>664.9596346349589</v>
+        <v>664.9596346349591</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>74.6389675028649</v>
+        <v>74.63896750286459</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.98577541616682</v>
+        <v>28.98577541616703</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>107.1651735943765</v>
+        <v>107.1651735943761</v>
       </c>
       <c r="M2" t="n">
-        <v>21.03226542345459</v>
+        <v>21.03226542345462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.98577541616693</v>
+        <v>28.98577541616714</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>120.2202729134852</v>
+        <v>120.220272913485</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.698976692778102e-14</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>125.7197205145004</v>
       </c>
       <c r="E4" t="n">
-        <v>529.2302353375273</v>
+        <v>529.2302353375271</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>215.8050187020513</v>
+        <v>215.805018702051</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>449.154615932908</v>
+        <v>449.1546159329075</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>74.6389675028649</v>
+        <v>74.63896750286459</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>28.98577541616682</v>
+        <v>28.98577541616703</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.286285363935998e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>125.7197205145004</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2302353375273</v>
+        <v>529.2302353375271</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>162.272501731286</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>323.5998025800867</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>348.8999020580436</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.7899117979144</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -27458,10 +27458,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>150.0769572485235</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>128.6337255676841</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -27515,13 +27515,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>216.101987543218</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>228.8930312960917</v>
       </c>
       <c r="X3" t="n">
-        <v>187.1212931689774</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -27549,16 +27549,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>158.4140260738226</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>147.7692399855875</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>132.7513351704169</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>49.44698741703764</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>28.14228914991649</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
@@ -27591,13 +27591,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>274.3086583328597</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>273.2851586848435</v>
+        <v>274.4783123957689</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27622,7 +27622,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>380.8281839120228</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>79.72222485617382</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27673,13 +27673,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>324.7929562910121</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>369.3933140017156</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -27695,7 +27695,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>150.0769572485235</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -27704,16 +27704,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>124.5303349976185</v>
       </c>
       <c r="G6" t="n">
-        <v>118.6246899049423</v>
+        <v>117.4315361940169</v>
       </c>
       <c r="H6" t="n">
-        <v>88.92880009583757</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.17674743307231</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
@@ -27755,7 +27755,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>238.9027100790231</v>
+        <v>228.8930312960917</v>
       </c>
       <c r="X6" t="n">
         <v>195.9378182409833</v>
@@ -27795,7 +27795,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>49.44698741703764</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>28.14228914991649</v>
       </c>
       <c r="R7" t="n">
-        <v>138.0168847888342</v>
+        <v>139.2100384997596</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>201.5629861874179</v>
       </c>
       <c r="T7" t="n">
-        <v>220.8374848695466</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>249.3114263251557</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
@@ -27853,7 +27853,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>242.3850217830889</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27865,13 +27865,13 @@
         <v>274.2802794854996</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H8" t="n">
-        <v>193.763662361232</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>35.35962750586017</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>77.74917739512559</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27916,7 +27916,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>348.3912878116489</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27932,22 +27932,22 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>24.35723673402308</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>1.720851342258271</v>
+        <v>106.1675510689902</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265704</v>
       </c>
       <c r="F9" t="n">
-        <v>72.98283138445017</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>67.69846245683961</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -27989,7 +27989,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -28011,13 +28011,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550473</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>15.81177494308312</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>14.75952479886257</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28026,7 +28026,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>97.6851300673101</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28059,7 +28059,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28071,13 +28071,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>147.5654381703431</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>159.7210185184369</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="C11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="D11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="E11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="F11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="G11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="H11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="I11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>59.37296205759074</v>
+        <v>59.3729620575908</v>
       </c>
       <c r="S11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="T11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="U11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="V11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="W11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="X11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="C13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="D13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="E13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="F13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="G13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="H13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="I13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="J13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="K13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="L13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="M13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="N13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="O13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="P13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="R13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="S13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="T13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="U13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="V13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="W13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="X13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113316</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="C14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="D14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="E14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="F14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="G14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="H14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="I14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>59.37296205759074</v>
+        <v>59.37296205759081</v>
       </c>
       <c r="S14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="T14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="U14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="V14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="W14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="X14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="C16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="D16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="E16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="F16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="G16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="H16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="I16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="J16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="K16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="L16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="M16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="N16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="O16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="P16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="R16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="S16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="T16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="U16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="V16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="W16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="X16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.54424693113303</v>
+        <v>82.54424693113329</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>59.37296205759074</v>
+        <v>59.37296205759081</v>
       </c>
       <c r="S17" t="n">
         <v>157.1832144339979</v>
@@ -28737,13 +28737,13 @@
         <v>157.1832144339979</v>
       </c>
       <c r="H19" t="n">
-        <v>155.8514527536109</v>
+        <v>108.3061639646979</v>
       </c>
       <c r="I19" t="n">
         <v>136.2415276779743</v>
       </c>
       <c r="J19" t="n">
-        <v>44.1295668155727</v>
+        <v>44.12956681557273</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.99870672291159</v>
+        <v>19.99870672291162</v>
       </c>
       <c r="R19" t="n">
-        <v>138.2788673450426</v>
+        <v>138.2788673450427</v>
       </c>
       <c r="S19" t="n">
         <v>157.1832144339979</v>
@@ -28779,7 +28779,7 @@
         <v>157.1832144339979</v>
       </c>
       <c r="V19" t="n">
-        <v>109.637925645084</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="W19" t="n">
         <v>157.1832144339979</v>
@@ -28819,7 +28819,7 @@
         <v>157.1832144339979</v>
       </c>
       <c r="I20" t="n">
-        <v>152.456696867625</v>
+        <v>152.4566968676251</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>59.37296205759064</v>
+        <v>59.37296205759081</v>
       </c>
       <c r="S20" t="n">
         <v>157.1832144339979</v>
@@ -28980,7 +28980,7 @@
         <v>136.2415276779743</v>
       </c>
       <c r="J22" t="n">
-        <v>44.12956681557264</v>
+        <v>44.12956681557273</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.99870672291152</v>
+        <v>19.99870672291162</v>
       </c>
       <c r="R22" t="n">
-        <v>138.2788673450426</v>
+        <v>138.2788673450427</v>
       </c>
       <c r="S22" t="n">
-        <v>157.1832144339979</v>
+        <v>109.6379256450849</v>
       </c>
       <c r="T22" t="n">
         <v>157.1832144339979</v>
@@ -29019,7 +29019,7 @@
         <v>157.1832144339979</v>
       </c>
       <c r="W22" t="n">
-        <v>109.6379256450834</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="X22" t="n">
         <v>157.1832144339979</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="C23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="D23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="E23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="F23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="G23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="H23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="I23" t="n">
         <v>152.4566968676251</v>
@@ -29086,25 +29086,25 @@
         <v>59.37296205759077</v>
       </c>
       <c r="S23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="T23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="U23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="V23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="W23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="X23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="Y23" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="C25" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,10 +29208,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="H25" t="n">
-        <v>108.3061639646968</v>
+        <v>155.8514527536109</v>
       </c>
       <c r="I25" t="n">
         <v>136.2415276779743</v>
@@ -29241,28 +29241,28 @@
         <v>19.9987067229116</v>
       </c>
       <c r="R25" t="n">
-        <v>138.2788673450427</v>
+        <v>90.73357855612957</v>
       </c>
       <c r="S25" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="T25" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="U25" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="V25" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="W25" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="X25" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
     </row>
     <row r="26">
@@ -29299,7 +29299,7 @@
         <v>103.6247429190317</v>
       </c>
       <c r="K26" t="n">
-        <v>103.6247429190317</v>
+        <v>45.24141515276131</v>
       </c>
       <c r="L26" t="n">
         <v>103.6247429190317</v>
@@ -29311,7 +29311,7 @@
         <v>103.6247429190317</v>
       </c>
       <c r="O26" t="n">
-        <v>45.24141515276136</v>
+        <v>103.6247429190317</v>
       </c>
       <c r="P26" t="n">
         <v>103.6247429190317</v>
@@ -29539,7 +29539,7 @@
         <v>103.6247429190317</v>
       </c>
       <c r="L29" t="n">
-        <v>103.6247429190317</v>
+        <v>45.24141515276119</v>
       </c>
       <c r="M29" t="n">
         <v>103.6247429190317</v>
@@ -29548,7 +29548,7 @@
         <v>103.6247429190317</v>
       </c>
       <c r="O29" t="n">
-        <v>45.24141515276136</v>
+        <v>103.6247429190317</v>
       </c>
       <c r="P29" t="n">
         <v>103.6247429190317</v>
@@ -29770,20 +29770,20 @@
         <v>136.1509490105433</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>136.1509490105433</v>
       </c>
-      <c r="K32" t="n">
-        <v>104.1381630931791</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
@@ -29791,7 +29791,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>104.1381630931796</v>
       </c>
       <c r="R32" t="n">
         <v>136.1509490105433</v>
@@ -29931,11 +29931,11 @@
         <v>44.12956681557271</v>
       </c>
       <c r="K34" t="n">
+        <v>97.73280358642724</v>
+      </c>
+      <c r="L34" t="n">
         <v>136.1509490105433</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>117.7315103093384</v>
+        <v>19.9987067229116</v>
       </c>
       <c r="R34" t="n">
         <v>136.1509490105433</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>157.1832144339979</v>
+        <v>109.6379256450844</v>
       </c>
       <c r="H37" t="n">
         <v>155.8514527536109</v>
@@ -30195,7 +30195,7 @@
         <v>157.1832144339979</v>
       </c>
       <c r="T37" t="n">
-        <v>109.6379256450845</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="U37" t="n">
         <v>157.1832144339979</v>
@@ -30381,7 +30381,7 @@
         <v>157.1832144339979</v>
       </c>
       <c r="C40" t="n">
-        <v>157.1832144339979</v>
+        <v>109.6379256450844</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30438,7 +30438,7 @@
         <v>157.1832144339979</v>
       </c>
       <c r="V40" t="n">
-        <v>109.6379256450844</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="W40" t="n">
         <v>157.1832144339979</v>
@@ -30666,10 +30666,10 @@
         <v>138.2788673450427</v>
       </c>
       <c r="S43" t="n">
-        <v>109.6379256450834</v>
+        <v>157.183214433998</v>
       </c>
       <c r="T43" t="n">
-        <v>157.183214433998</v>
+        <v>109.6379256450835</v>
       </c>
       <c r="U43" t="n">
         <v>157.183214433998</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="C44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="D44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="E44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="F44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="G44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="H44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="I44" t="n">
         <v>152.4566968676251</v>
@@ -30745,25 +30745,25 @@
         <v>59.37296205759077</v>
       </c>
       <c r="S44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="T44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="U44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="V44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="W44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="X44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="Y44" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="C46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,13 +30867,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="H46" t="n">
         <v>155.8514527536109</v>
       </c>
       <c r="I46" t="n">
-        <v>136.2415276779743</v>
+        <v>88.69623888906115</v>
       </c>
       <c r="J46" t="n">
         <v>44.12956681557271</v>
@@ -30903,25 +30903,25 @@
         <v>138.2788673450427</v>
       </c>
       <c r="S46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="T46" t="n">
-        <v>109.6379256450835</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="U46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="V46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="W46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="X46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
       <c r="Y46" t="n">
-        <v>157.183214433998</v>
+        <v>157.1832144339979</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.483297579551699</v>
+        <v>0.4832975795516982</v>
       </c>
       <c r="H11" t="n">
-        <v>4.949571336583839</v>
+        <v>4.94957133658383</v>
       </c>
       <c r="I11" t="n">
-        <v>18.6323299356669</v>
+        <v>18.63232993566686</v>
       </c>
       <c r="J11" t="n">
-        <v>41.01927794247605</v>
+        <v>41.01927794247598</v>
       </c>
       <c r="K11" t="n">
-        <v>61.47726448489948</v>
+        <v>61.47726448489937</v>
       </c>
       <c r="L11" t="n">
-        <v>76.26798278510481</v>
+        <v>76.26798278510466</v>
       </c>
       <c r="M11" t="n">
-        <v>84.86282611545732</v>
+        <v>84.86282611545718</v>
       </c>
       <c r="N11" t="n">
-        <v>86.2359953633586</v>
+        <v>86.23599536335846</v>
       </c>
       <c r="O11" t="n">
-        <v>81.43020505669139</v>
+        <v>81.43020505669125</v>
       </c>
       <c r="P11" t="n">
-        <v>69.49879606150881</v>
+        <v>69.49879606150868</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.19070149381357</v>
+        <v>52.19070149381348</v>
       </c>
       <c r="R11" t="n">
-        <v>30.35894158151444</v>
+        <v>30.35894158151439</v>
       </c>
       <c r="S11" t="n">
-        <v>11.01314359403435</v>
+        <v>11.01314359403433</v>
       </c>
       <c r="T11" t="n">
-        <v>2.115635154487563</v>
+        <v>2.11563515448756</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03866380636413591</v>
+        <v>0.03866380636413584</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2585870021157984</v>
+        <v>0.2585870021157979</v>
       </c>
       <c r="H12" t="n">
-        <v>2.497406046749948</v>
+        <v>2.497406046749944</v>
       </c>
       <c r="I12" t="n">
-        <v>8.903105116706218</v>
+        <v>8.903105116706202</v>
       </c>
       <c r="J12" t="n">
-        <v>24.43080093235269</v>
+        <v>24.43080093235265</v>
       </c>
       <c r="K12" t="n">
-        <v>41.75613007411118</v>
+        <v>41.75613007411111</v>
       </c>
       <c r="L12" t="n">
-        <v>56.14626991115176</v>
+        <v>56.14626991115166</v>
       </c>
       <c r="M12" t="n">
-        <v>65.52004873784944</v>
+        <v>65.52004873784932</v>
       </c>
       <c r="N12" t="n">
-        <v>67.25416946695057</v>
+        <v>67.25416946695044</v>
       </c>
       <c r="O12" t="n">
-        <v>61.52442589375314</v>
+        <v>61.52442589375303</v>
       </c>
       <c r="P12" t="n">
-        <v>49.37877586893698</v>
+        <v>49.37877586893689</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.00840398937806</v>
+        <v>33.008403989378</v>
       </c>
       <c r="R12" t="n">
-        <v>16.05507720154054</v>
+        <v>16.05507720154051</v>
       </c>
       <c r="S12" t="n">
-        <v>4.803140148949147</v>
+        <v>4.803140148949138</v>
       </c>
       <c r="T12" t="n">
-        <v>1.042287083089555</v>
+        <v>1.042287083089554</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01701230277077622</v>
+        <v>0.01701230277077619</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2167906560734979</v>
+        <v>0.2167906560734975</v>
       </c>
       <c r="H13" t="n">
-        <v>1.92746601490801</v>
+        <v>1.927466014908007</v>
       </c>
       <c r="I13" t="n">
-        <v>6.519486275373921</v>
+        <v>6.519486275373909</v>
       </c>
       <c r="J13" t="n">
-        <v>15.3270993843963</v>
+        <v>15.32709938439627</v>
       </c>
       <c r="K13" t="n">
-        <v>25.18713258744821</v>
+        <v>25.18713258744816</v>
       </c>
       <c r="L13" t="n">
-        <v>32.23085808569078</v>
+        <v>32.23085808569072</v>
       </c>
       <c r="M13" t="n">
-        <v>33.98292075159385</v>
+        <v>33.9829207515938</v>
       </c>
       <c r="N13" t="n">
-        <v>33.17488285168357</v>
+        <v>33.17488285168351</v>
       </c>
       <c r="O13" t="n">
-        <v>30.64237382391588</v>
+        <v>30.64237382391583</v>
       </c>
       <c r="P13" t="n">
-        <v>26.2198444400165</v>
+        <v>26.21984444001646</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.15326120993627</v>
+        <v>18.15326120993624</v>
       </c>
       <c r="R13" t="n">
-        <v>9.747696226722912</v>
+        <v>9.747696226722896</v>
       </c>
       <c r="S13" t="n">
-        <v>3.77806988811723</v>
+        <v>3.778069888117224</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9262873486776726</v>
+        <v>0.926287348677671</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01182494487673626</v>
+        <v>0.01182494487673624</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.483297579551699</v>
+        <v>0.483297579551698</v>
       </c>
       <c r="H14" t="n">
-        <v>4.949571336583839</v>
+        <v>4.949571336583828</v>
       </c>
       <c r="I14" t="n">
-        <v>18.6323299356669</v>
+        <v>18.63232993566685</v>
       </c>
       <c r="J14" t="n">
-        <v>41.01927794247605</v>
+        <v>41.01927794247597</v>
       </c>
       <c r="K14" t="n">
-        <v>61.47726448489948</v>
+        <v>61.47726448489935</v>
       </c>
       <c r="L14" t="n">
-        <v>76.26798278510481</v>
+        <v>76.26798278510465</v>
       </c>
       <c r="M14" t="n">
-        <v>84.86282611545732</v>
+        <v>84.86282611545715</v>
       </c>
       <c r="N14" t="n">
-        <v>86.2359953633586</v>
+        <v>86.23599536335841</v>
       </c>
       <c r="O14" t="n">
-        <v>81.43020505669139</v>
+        <v>81.43020505669122</v>
       </c>
       <c r="P14" t="n">
-        <v>69.49879606150881</v>
+        <v>69.49879606150866</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.19070149381357</v>
+        <v>52.19070149381346</v>
       </c>
       <c r="R14" t="n">
-        <v>30.35894158151444</v>
+        <v>30.35894158151438</v>
       </c>
       <c r="S14" t="n">
-        <v>11.01314359403435</v>
+        <v>11.01314359403433</v>
       </c>
       <c r="T14" t="n">
-        <v>2.115635154487563</v>
+        <v>2.115635154487559</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03866380636413591</v>
+        <v>0.03866380636413583</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2585870021157984</v>
+        <v>0.2585870021157978</v>
       </c>
       <c r="H15" t="n">
-        <v>2.497406046749948</v>
+        <v>2.497406046749943</v>
       </c>
       <c r="I15" t="n">
-        <v>8.903105116706218</v>
+        <v>8.903105116706199</v>
       </c>
       <c r="J15" t="n">
-        <v>24.43080093235269</v>
+        <v>24.43080093235264</v>
       </c>
       <c r="K15" t="n">
-        <v>41.75613007411118</v>
+        <v>41.7561300741111</v>
       </c>
       <c r="L15" t="n">
-        <v>56.14626991115176</v>
+        <v>56.14626991115164</v>
       </c>
       <c r="M15" t="n">
-        <v>65.52004873784944</v>
+        <v>65.52004873784929</v>
       </c>
       <c r="N15" t="n">
-        <v>67.25416946695057</v>
+        <v>67.25416946695043</v>
       </c>
       <c r="O15" t="n">
-        <v>61.52442589375314</v>
+        <v>61.524425893753</v>
       </c>
       <c r="P15" t="n">
-        <v>49.37877586893698</v>
+        <v>49.37877586893688</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.00840398937806</v>
+        <v>33.00840398937799</v>
       </c>
       <c r="R15" t="n">
-        <v>16.05507720154054</v>
+        <v>16.05507720154051</v>
       </c>
       <c r="S15" t="n">
-        <v>4.803140148949147</v>
+        <v>4.803140148949137</v>
       </c>
       <c r="T15" t="n">
-        <v>1.042287083089555</v>
+        <v>1.042287083089553</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01701230277077622</v>
+        <v>0.01701230277077618</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2167906560734979</v>
+        <v>0.2167906560734975</v>
       </c>
       <c r="H16" t="n">
-        <v>1.92746601490801</v>
+        <v>1.927466014908006</v>
       </c>
       <c r="I16" t="n">
-        <v>6.519486275373921</v>
+        <v>6.519486275373907</v>
       </c>
       <c r="J16" t="n">
-        <v>15.3270993843963</v>
+        <v>15.32709938439627</v>
       </c>
       <c r="K16" t="n">
-        <v>25.18713258744821</v>
+        <v>25.18713258744815</v>
       </c>
       <c r="L16" t="n">
-        <v>32.23085808569078</v>
+        <v>32.23085808569071</v>
       </c>
       <c r="M16" t="n">
-        <v>33.98292075159385</v>
+        <v>33.98292075159378</v>
       </c>
       <c r="N16" t="n">
-        <v>33.17488285168357</v>
+        <v>33.1748828516835</v>
       </c>
       <c r="O16" t="n">
-        <v>30.64237382391588</v>
+        <v>30.64237382391581</v>
       </c>
       <c r="P16" t="n">
-        <v>26.2198444400165</v>
+        <v>26.21984444001644</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.15326120993627</v>
+        <v>18.15326120993623</v>
       </c>
       <c r="R16" t="n">
-        <v>9.747696226722912</v>
+        <v>9.747696226722892</v>
       </c>
       <c r="S16" t="n">
-        <v>3.77806988811723</v>
+        <v>3.778069888117222</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9262873486776726</v>
+        <v>0.9262873486776707</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01182494487673626</v>
+        <v>0.01182494487673624</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.483297579551699</v>
+        <v>0.483297579551698</v>
       </c>
       <c r="H17" t="n">
-        <v>4.949571336583839</v>
+        <v>4.949571336583828</v>
       </c>
       <c r="I17" t="n">
-        <v>18.6323299356669</v>
+        <v>18.63232993566685</v>
       </c>
       <c r="J17" t="n">
-        <v>41.01927794247605</v>
+        <v>41.01927794247597</v>
       </c>
       <c r="K17" t="n">
-        <v>61.47726448489948</v>
+        <v>61.47726448489935</v>
       </c>
       <c r="L17" t="n">
-        <v>76.26798278510481</v>
+        <v>76.26798278510465</v>
       </c>
       <c r="M17" t="n">
-        <v>84.86282611545732</v>
+        <v>84.86282611545715</v>
       </c>
       <c r="N17" t="n">
-        <v>86.2359953633586</v>
+        <v>86.23599536335841</v>
       </c>
       <c r="O17" t="n">
-        <v>81.43020505669139</v>
+        <v>81.43020505669122</v>
       </c>
       <c r="P17" t="n">
-        <v>69.49879606150881</v>
+        <v>69.49879606150866</v>
       </c>
       <c r="Q17" t="n">
-        <v>52.19070149381357</v>
+        <v>52.19070149381346</v>
       </c>
       <c r="R17" t="n">
-        <v>30.35894158151444</v>
+        <v>30.35894158151438</v>
       </c>
       <c r="S17" t="n">
-        <v>11.01314359403435</v>
+        <v>11.01314359403433</v>
       </c>
       <c r="T17" t="n">
-        <v>2.115635154487563</v>
+        <v>2.115635154487559</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03866380636413591</v>
+        <v>0.03866380636413583</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2585870021157984</v>
+        <v>0.2585870021157978</v>
       </c>
       <c r="H18" t="n">
-        <v>2.497406046749948</v>
+        <v>2.497406046749943</v>
       </c>
       <c r="I18" t="n">
-        <v>8.903105116706218</v>
+        <v>8.903105116706199</v>
       </c>
       <c r="J18" t="n">
-        <v>24.43080093235269</v>
+        <v>24.43080093235264</v>
       </c>
       <c r="K18" t="n">
-        <v>41.75613007411118</v>
+        <v>41.7561300741111</v>
       </c>
       <c r="L18" t="n">
-        <v>56.14626991115176</v>
+        <v>56.14626991115164</v>
       </c>
       <c r="M18" t="n">
-        <v>65.52004873784944</v>
+        <v>65.52004873784929</v>
       </c>
       <c r="N18" t="n">
-        <v>67.25416946695057</v>
+        <v>67.25416946695043</v>
       </c>
       <c r="O18" t="n">
-        <v>61.52442589375314</v>
+        <v>61.524425893753</v>
       </c>
       <c r="P18" t="n">
-        <v>49.37877586893698</v>
+        <v>49.37877586893688</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.00840398937806</v>
+        <v>33.00840398937799</v>
       </c>
       <c r="R18" t="n">
-        <v>16.05507720154054</v>
+        <v>16.05507720154051</v>
       </c>
       <c r="S18" t="n">
-        <v>4.803140148949147</v>
+        <v>4.803140148949137</v>
       </c>
       <c r="T18" t="n">
-        <v>1.042287083089555</v>
+        <v>1.042287083089553</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01701230277077622</v>
+        <v>0.01701230277077618</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2167906560734979</v>
+        <v>0.2167906560734975</v>
       </c>
       <c r="H19" t="n">
-        <v>1.92746601490801</v>
+        <v>1.927466014908006</v>
       </c>
       <c r="I19" t="n">
-        <v>6.519486275373921</v>
+        <v>6.519486275373907</v>
       </c>
       <c r="J19" t="n">
-        <v>15.3270993843963</v>
+        <v>15.32709938439627</v>
       </c>
       <c r="K19" t="n">
-        <v>25.18713258744821</v>
+        <v>25.18713258744815</v>
       </c>
       <c r="L19" t="n">
-        <v>32.23085808569078</v>
+        <v>32.23085808569071</v>
       </c>
       <c r="M19" t="n">
-        <v>33.98292075159385</v>
+        <v>33.98292075159378</v>
       </c>
       <c r="N19" t="n">
-        <v>33.17488285168357</v>
+        <v>33.1748828516835</v>
       </c>
       <c r="O19" t="n">
-        <v>30.64237382391588</v>
+        <v>30.64237382391581</v>
       </c>
       <c r="P19" t="n">
-        <v>26.2198444400165</v>
+        <v>26.21984444001644</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.15326120993627</v>
+        <v>18.15326120993623</v>
       </c>
       <c r="R19" t="n">
-        <v>9.747696226722912</v>
+        <v>9.747696226722892</v>
       </c>
       <c r="S19" t="n">
-        <v>3.77806988811723</v>
+        <v>3.778069888117222</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9262873486776726</v>
+        <v>0.9262873486776707</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01182494487673626</v>
+        <v>0.01182494487673624</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4832975795517007</v>
+        <v>0.483297579551698</v>
       </c>
       <c r="H20" t="n">
-        <v>4.949571336583857</v>
+        <v>4.949571336583828</v>
       </c>
       <c r="I20" t="n">
-        <v>18.63232993566696</v>
+        <v>18.63232993566685</v>
       </c>
       <c r="J20" t="n">
-        <v>41.01927794247619</v>
+        <v>41.01927794247597</v>
       </c>
       <c r="K20" t="n">
-        <v>61.4772644848997</v>
+        <v>61.47726448489935</v>
       </c>
       <c r="L20" t="n">
-        <v>76.26798278510508</v>
+        <v>76.26798278510465</v>
       </c>
       <c r="M20" t="n">
-        <v>84.86282611545764</v>
+        <v>84.86282611545715</v>
       </c>
       <c r="N20" t="n">
-        <v>86.23599536335891</v>
+        <v>86.23599536335841</v>
       </c>
       <c r="O20" t="n">
-        <v>81.43020505669168</v>
+        <v>81.43020505669122</v>
       </c>
       <c r="P20" t="n">
-        <v>69.49879606150905</v>
+        <v>69.49879606150866</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.19070149381376</v>
+        <v>52.19070149381346</v>
       </c>
       <c r="R20" t="n">
-        <v>30.35894158151455</v>
+        <v>30.35894158151438</v>
       </c>
       <c r="S20" t="n">
-        <v>11.01314359403439</v>
+        <v>11.01314359403433</v>
       </c>
       <c r="T20" t="n">
-        <v>2.115635154487571</v>
+        <v>2.115635154487559</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03866380636413605</v>
+        <v>0.03866380636413583</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2585870021157993</v>
+        <v>0.2585870021157978</v>
       </c>
       <c r="H21" t="n">
-        <v>2.497406046749957</v>
+        <v>2.497406046749943</v>
       </c>
       <c r="I21" t="n">
-        <v>8.90310511670625</v>
+        <v>8.903105116706199</v>
       </c>
       <c r="J21" t="n">
-        <v>24.43080093235278</v>
+        <v>24.43080093235264</v>
       </c>
       <c r="K21" t="n">
-        <v>41.75613007411133</v>
+        <v>41.7561300741111</v>
       </c>
       <c r="L21" t="n">
-        <v>56.14626991115195</v>
+        <v>56.14626991115164</v>
       </c>
       <c r="M21" t="n">
-        <v>65.52004873784966</v>
+        <v>65.52004873784929</v>
       </c>
       <c r="N21" t="n">
-        <v>67.25416946695081</v>
+        <v>67.25416946695043</v>
       </c>
       <c r="O21" t="n">
-        <v>61.52442589375335</v>
+        <v>61.524425893753</v>
       </c>
       <c r="P21" t="n">
-        <v>49.37877586893715</v>
+        <v>49.37877586893688</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.00840398937817</v>
+        <v>33.00840398937799</v>
       </c>
       <c r="R21" t="n">
-        <v>16.0550772015406</v>
+        <v>16.05507720154051</v>
       </c>
       <c r="S21" t="n">
-        <v>4.803140148949164</v>
+        <v>4.803140148949137</v>
       </c>
       <c r="T21" t="n">
-        <v>1.042287083089559</v>
+        <v>1.042287083089553</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01701230277077628</v>
+        <v>0.01701230277077618</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2167906560734987</v>
+        <v>0.2167906560734975</v>
       </c>
       <c r="H22" t="n">
-        <v>1.927466014908017</v>
+        <v>1.927466014908006</v>
       </c>
       <c r="I22" t="n">
-        <v>6.519486275373944</v>
+        <v>6.519486275373907</v>
       </c>
       <c r="J22" t="n">
-        <v>15.32709938439636</v>
+        <v>15.32709938439627</v>
       </c>
       <c r="K22" t="n">
-        <v>25.1871325874483</v>
+        <v>25.18713258744815</v>
       </c>
       <c r="L22" t="n">
-        <v>32.23085808569089</v>
+        <v>32.23085808569071</v>
       </c>
       <c r="M22" t="n">
-        <v>33.98292075159397</v>
+        <v>33.98292075159378</v>
       </c>
       <c r="N22" t="n">
-        <v>33.17488285168369</v>
+        <v>33.1748828516835</v>
       </c>
       <c r="O22" t="n">
-        <v>30.64237382391599</v>
+        <v>30.64237382391581</v>
       </c>
       <c r="P22" t="n">
-        <v>26.21984444001659</v>
+        <v>26.21984444001644</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.15326120993633</v>
+        <v>18.15326120993623</v>
       </c>
       <c r="R22" t="n">
-        <v>9.747696226722947</v>
+        <v>9.747696226722892</v>
       </c>
       <c r="S22" t="n">
-        <v>3.778069888117244</v>
+        <v>3.778069888117222</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9262873486776759</v>
+        <v>0.9262873486776707</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01182494487673631</v>
+        <v>0.01182494487673624</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>9.605247316954337</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="O3" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P3" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="L4" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="N4" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>10.00967878293136</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K5" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M5" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="N5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35027,7 +35027,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P6" t="n">
         <v>10.00967878293136</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>9.605247316954339</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="N7" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="O7" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M8" t="n">
-        <v>34.85926832931629</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="O8" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P9" t="n">
         <v>135.7293992974318</v>
@@ -35410,22 +35410,22 @@
         <v>113.7450802382393</v>
       </c>
       <c r="K11" t="n">
-        <v>304.0432968533669</v>
+        <v>304.0432968533668</v>
       </c>
       <c r="L11" t="n">
-        <v>427.6673495375758</v>
+        <v>427.6673495375756</v>
       </c>
       <c r="M11" t="n">
-        <v>482.0741051589805</v>
+        <v>482.0741051589804</v>
       </c>
       <c r="N11" t="n">
-        <v>468.3888829267078</v>
+        <v>468.3888829267077</v>
       </c>
       <c r="O11" t="n">
-        <v>389.5156439181399</v>
+        <v>389.5156439181397</v>
       </c>
       <c r="P11" t="n">
-        <v>299.9603076332797</v>
+        <v>299.9603076332796</v>
       </c>
       <c r="Q11" t="n">
         <v>147.5768163286994</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>132.8158795261966</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>425.6632852345009</v>
+        <v>425.6632852345008</v>
       </c>
       <c r="M12" t="n">
         <v>555.4527290512094</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6841150458617</v>
+        <v>583.6841150458616</v>
       </c>
       <c r="O12" t="n">
-        <v>457.6859923423904</v>
+        <v>457.6859923423903</v>
       </c>
       <c r="P12" t="n">
-        <v>354.526169076712</v>
+        <v>354.5261690767119</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>132.8158795261975</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>38.41468011556033</v>
+        <v>38.41468011556043</v>
       </c>
       <c r="K13" t="n">
-        <v>141.6750035030695</v>
+        <v>141.6750035030696</v>
       </c>
       <c r="L13" t="n">
-        <v>216.3984175423384</v>
+        <v>216.3984175423385</v>
       </c>
       <c r="M13" t="n">
-        <v>235.7125274075771</v>
+        <v>235.7125274075772</v>
       </c>
       <c r="N13" t="n">
         <v>235.337656802615</v>
@@ -35583,10 +35583,10 @@
         <v>212.6448495385739</v>
       </c>
       <c r="P13" t="n">
-        <v>172.3686203894705</v>
+        <v>172.3686203894706</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.54554020822145</v>
+        <v>62.54554020822154</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>113.7450802382393</v>
       </c>
       <c r="K14" t="n">
-        <v>304.0432968533669</v>
+        <v>304.0432968533668</v>
       </c>
       <c r="L14" t="n">
-        <v>427.6673495375758</v>
+        <v>427.6673495375756</v>
       </c>
       <c r="M14" t="n">
-        <v>482.0741051589805</v>
+        <v>482.0741051589803</v>
       </c>
       <c r="N14" t="n">
-        <v>468.3888829267078</v>
+        <v>468.3888829267077</v>
       </c>
       <c r="O14" t="n">
-        <v>389.5156439181399</v>
+        <v>389.5156439181396</v>
       </c>
       <c r="P14" t="n">
-        <v>299.9603076332797</v>
+        <v>299.9603076332796</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.5768163286994</v>
+        <v>147.5768163286993</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>425.6632852345009</v>
+        <v>425.6632852345008</v>
       </c>
       <c r="M15" t="n">
-        <v>555.4527290512094</v>
+        <v>555.4527290512093</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6841150458617</v>
+        <v>583.6841150458616</v>
       </c>
       <c r="O15" t="n">
-        <v>457.6859923423904</v>
+        <v>457.6859923423903</v>
       </c>
       <c r="P15" t="n">
-        <v>294.9683620018195</v>
+        <v>354.5261690767119</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.3736866010894</v>
+        <v>132.8158795261975</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>38.41468011556033</v>
+        <v>38.41468011556056</v>
       </c>
       <c r="K16" t="n">
-        <v>141.6750035030695</v>
+        <v>141.6750035030697</v>
       </c>
       <c r="L16" t="n">
-        <v>216.3984175423384</v>
+        <v>216.3984175423386</v>
       </c>
       <c r="M16" t="n">
-        <v>235.7125274075771</v>
+        <v>235.7125274075773</v>
       </c>
       <c r="N16" t="n">
-        <v>235.337656802615</v>
+        <v>235.3376568026151</v>
       </c>
       <c r="O16" t="n">
-        <v>212.6448495385739</v>
+        <v>212.644849538574</v>
       </c>
       <c r="P16" t="n">
-        <v>172.3686203894705</v>
+        <v>172.3686203894707</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.54554020822145</v>
+        <v>62.54554020822167</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35884,25 @@
         <v>113.7450802382393</v>
       </c>
       <c r="K17" t="n">
-        <v>304.0432968533669</v>
+        <v>304.0432968533668</v>
       </c>
       <c r="L17" t="n">
-        <v>427.6673495375758</v>
+        <v>427.6673495375756</v>
       </c>
       <c r="M17" t="n">
-        <v>482.0741051589805</v>
+        <v>482.0741051589803</v>
       </c>
       <c r="N17" t="n">
-        <v>468.3888829267078</v>
+        <v>468.3888829267077</v>
       </c>
       <c r="O17" t="n">
-        <v>389.5156439181399</v>
+        <v>389.5156439181396</v>
       </c>
       <c r="P17" t="n">
-        <v>299.9603076332797</v>
+        <v>299.9603076332796</v>
       </c>
       <c r="Q17" t="n">
-        <v>147.5768163286994</v>
+        <v>147.5768163286993</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>85.29357520821749</v>
+        <v>85.29357520821743</v>
       </c>
       <c r="K18" t="n">
         <v>273.5647690237967</v>
       </c>
       <c r="L18" t="n">
-        <v>425.6632852345009</v>
+        <v>425.6632852345008</v>
       </c>
       <c r="M18" t="n">
-        <v>555.4527290512094</v>
+        <v>555.4527290512093</v>
       </c>
       <c r="N18" t="n">
-        <v>165.2679637389548</v>
+        <v>165.2679637389558</v>
       </c>
       <c r="O18" t="n">
-        <v>457.6859923423904</v>
+        <v>457.6859923423903</v>
       </c>
       <c r="P18" t="n">
-        <v>354.526169076712</v>
+        <v>354.5261690767119</v>
       </c>
       <c r="Q18" t="n">
-        <v>192.3736866010894</v>
+        <v>192.3736866010893</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>59.1307565719365</v>
+        <v>59.13075657193645</v>
       </c>
       <c r="L19" t="n">
-        <v>133.8541706112054</v>
+        <v>133.8541706112053</v>
       </c>
       <c r="M19" t="n">
-        <v>153.1682804764441</v>
+        <v>153.168280476444</v>
       </c>
       <c r="N19" t="n">
         <v>152.7934098714819</v>
       </c>
       <c r="O19" t="n">
-        <v>130.1006026074408</v>
+        <v>130.1006026074407</v>
       </c>
       <c r="P19" t="n">
-        <v>89.8243734583375</v>
+        <v>89.82437345833745</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>113.7450802382395</v>
+        <v>113.7450802382371</v>
       </c>
       <c r="K20" t="n">
-        <v>304.0432968533671</v>
+        <v>304.0432968533668</v>
       </c>
       <c r="L20" t="n">
-        <v>427.667349537576</v>
+        <v>427.6673495375756</v>
       </c>
       <c r="M20" t="n">
-        <v>482.0741051589808</v>
+        <v>482.0741051589803</v>
       </c>
       <c r="N20" t="n">
-        <v>468.3888829267081</v>
+        <v>468.3888829267077</v>
       </c>
       <c r="O20" t="n">
-        <v>389.5156439181401</v>
+        <v>389.5156439181396</v>
       </c>
       <c r="P20" t="n">
-        <v>299.96030763328</v>
+        <v>299.9603076332796</v>
       </c>
       <c r="Q20" t="n">
-        <v>147.5768163286996</v>
+        <v>147.5768163286993</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>132.8158795261957</v>
+        <v>273.5647690237967</v>
       </c>
       <c r="L21" t="n">
-        <v>425.6632852345011</v>
+        <v>425.6632852345008</v>
       </c>
       <c r="M21" t="n">
-        <v>555.4527290512096</v>
+        <v>555.4527290512093</v>
       </c>
       <c r="N21" t="n">
-        <v>583.684115045862</v>
+        <v>583.6841150458616</v>
       </c>
       <c r="O21" t="n">
-        <v>457.6859923423906</v>
+        <v>457.6859923423903</v>
       </c>
       <c r="P21" t="n">
-        <v>354.5261690767122</v>
+        <v>213.7772795791125</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.13075657193659</v>
+        <v>59.13075657193645</v>
       </c>
       <c r="L22" t="n">
-        <v>133.8541706112055</v>
+        <v>133.8541706112053</v>
       </c>
       <c r="M22" t="n">
-        <v>153.1682804764442</v>
+        <v>153.168280476444</v>
       </c>
       <c r="N22" t="n">
-        <v>152.793409871482</v>
+        <v>152.7934098714819</v>
       </c>
       <c r="O22" t="n">
-        <v>130.1006026074409</v>
+        <v>130.1006026074407</v>
       </c>
       <c r="P22" t="n">
-        <v>89.82437345833759</v>
+        <v>89.82437345833745</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>273.5647690237967</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>425.6632852345008</v>
       </c>
       <c r="M24" t="n">
-        <v>222.3301529525203</v>
+        <v>495.8949219763169</v>
       </c>
       <c r="N24" t="n">
         <v>583.6841150458617</v>
@@ -36595,7 +36595,7 @@
         <v>217.369823157271</v>
       </c>
       <c r="K26" t="n">
-        <v>407.6680397723986</v>
+        <v>349.2847120061281</v>
       </c>
       <c r="L26" t="n">
         <v>531.2920924566074</v>
@@ -36607,7 +36607,7 @@
         <v>572.0136258457394</v>
       </c>
       <c r="O26" t="n">
-        <v>434.7570590709011</v>
+        <v>493.1403868371715</v>
       </c>
       <c r="P26" t="n">
         <v>403.5850505523114</v>
@@ -36674,7 +36674,7 @@
         <v>85.29357520821745</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>273.5647690237967</v>
       </c>
       <c r="L27" t="n">
         <v>425.6632852345008</v>
@@ -36683,13 +36683,13 @@
         <v>555.4527290512094</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6841150458617</v>
+        <v>165.2679637389555</v>
       </c>
       <c r="O27" t="n">
         <v>457.6859923423903</v>
       </c>
       <c r="P27" t="n">
-        <v>209.6747867936021</v>
+        <v>354.5261690767119</v>
       </c>
       <c r="Q27" t="n">
         <v>192.3736866010894</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>217.369823157271</v>
+        <v>217.3698231572711</v>
       </c>
       <c r="K29" t="n">
         <v>407.6680397723986</v>
       </c>
       <c r="L29" t="n">
-        <v>531.2920924566074</v>
+        <v>472.9087646903369</v>
       </c>
       <c r="M29" t="n">
         <v>585.6988480780121</v>
       </c>
       <c r="N29" t="n">
-        <v>572.0136258457394</v>
+        <v>572.0136258457395</v>
       </c>
       <c r="O29" t="n">
-        <v>434.7570590709011</v>
+        <v>493.1403868371715</v>
       </c>
       <c r="P29" t="n">
         <v>403.5850505523114</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.2015592477311</v>
+        <v>251.2015592477312</v>
       </c>
       <c r="R29" t="n">
-        <v>44.25178086144095</v>
+        <v>44.25178086144096</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>555.4527290512094</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6841150458617</v>
+        <v>165.2679637389551</v>
       </c>
       <c r="O30" t="n">
-        <v>39.26984103548379</v>
+        <v>457.6859923423904</v>
       </c>
       <c r="P30" t="n">
         <v>354.5261690767119</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.49517610345901</v>
+        <v>59.49517610345902</v>
       </c>
       <c r="K31" t="n">
         <v>162.7554994909682</v>
@@ -36999,7 +36999,7 @@
         <v>256.7930233954758</v>
       </c>
       <c r="N31" t="n">
-        <v>256.4181527905136</v>
+        <v>256.4181527905137</v>
       </c>
       <c r="O31" t="n">
         <v>233.7253455264725</v>
@@ -37008,7 +37008,7 @@
         <v>193.4491163773692</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.62603619612011</v>
+        <v>83.62603619612014</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>249.8960292487826</v>
+        <v>113.7450802382393</v>
       </c>
       <c r="K32" t="n">
-        <v>408.1814599465459</v>
+        <v>304.0432968533669</v>
       </c>
       <c r="L32" t="n">
         <v>427.6673495375757</v>
@@ -37078,7 +37078,7 @@
         <v>482.0741051589804</v>
       </c>
       <c r="N32" t="n">
-        <v>468.3888829267078</v>
+        <v>604.5398319372512</v>
       </c>
       <c r="O32" t="n">
         <v>389.5156439181397</v>
@@ -37087,10 +37087,10 @@
         <v>299.9603076332797</v>
       </c>
       <c r="Q32" t="n">
-        <v>147.5768163286994</v>
+        <v>251.714979421879</v>
       </c>
       <c r="R32" t="n">
-        <v>76.77798695295255</v>
+        <v>76.77798695295252</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>132.815879526197</v>
+        <v>273.5647690237967</v>
       </c>
       <c r="L33" t="n">
         <v>425.6632852345008</v>
@@ -37163,10 +37163,10 @@
         <v>457.6859923423904</v>
       </c>
       <c r="P33" t="n">
-        <v>354.5261690767119</v>
+        <v>21.40359297802316</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>192.3736866010894</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>195.2817055824798</v>
+        <v>156.8635601583637</v>
       </c>
       <c r="L34" t="n">
-        <v>133.8541706112054</v>
+        <v>270.0051196217487</v>
       </c>
       <c r="M34" t="n">
         <v>153.1682804764441</v>
@@ -37245,7 +37245,7 @@
         <v>89.82437345833748</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.73280358642683</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>85.29357520821748</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>47.5223043179796</v>
       </c>
       <c r="L36" t="n">
-        <v>280.8119029513908</v>
+        <v>425.6632852345008</v>
       </c>
       <c r="M36" t="n">
         <v>555.4527290512094</v>
@@ -37403,7 +37403,7 @@
         <v>354.5261690767119</v>
       </c>
       <c r="Q36" t="n">
-        <v>192.3736866010894</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>304.0432968533669</v>
       </c>
       <c r="L38" t="n">
-        <v>427.6673495375759</v>
+        <v>427.6673495375757</v>
       </c>
       <c r="M38" t="n">
         <v>482.0741051589804</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>85.29357520821748</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>273.5647690237967</v>
+        <v>132.8158795261971</v>
       </c>
       <c r="L39" t="n">
         <v>425.6632852345008</v>
@@ -37631,7 +37631,7 @@
         <v>555.4527290512094</v>
       </c>
       <c r="N39" t="n">
-        <v>165.2679637389551</v>
+        <v>583.6841150458617</v>
       </c>
       <c r="O39" t="n">
         <v>457.6859923423904</v>
@@ -37640,7 +37640,7 @@
         <v>354.5261690767119</v>
       </c>
       <c r="Q39" t="n">
-        <v>192.3736866010894</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>273.5647690237967</v>
+        <v>132.8158795261971</v>
       </c>
       <c r="L42" t="n">
-        <v>92.54070913581164</v>
+        <v>425.6632852345008</v>
       </c>
       <c r="M42" t="n">
         <v>555.4527290512094</v>
@@ -37877,7 +37877,7 @@
         <v>354.5261690767119</v>
       </c>
       <c r="Q42" t="n">
-        <v>192.3736866010894</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>85.29357520821748</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>132.8158795261971</v>
       </c>
       <c r="L45" t="n">
         <v>425.6632852345008</v>
@@ -38111,10 +38111,10 @@
         <v>457.6859923423904</v>
       </c>
       <c r="P45" t="n">
-        <v>209.6747867936021</v>
+        <v>354.5261690767119</v>
       </c>
       <c r="Q45" t="n">
-        <v>192.3736866010894</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
